--- a/data/processed/CAR_v5_extra_vars.xlsx
+++ b/data/processed/CAR_v5_extra_vars.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU327"/>
+  <dimension ref="A1:AV327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,6 +673,11 @@
           <t>running_positive_CAR_percentage_1</t>
         </is>
       </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>gdp_lag1_tgt</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -753,7 +758,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -855,6 +860,9 @@
       </c>
       <c r="AU2" t="n">
         <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.162368267425379</v>
       </c>
     </row>
     <row r="3">
@@ -936,7 +944,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -1040,6 +1048,9 @@
       </c>
       <c r="AU3" t="n">
         <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1.162368267425379</v>
       </c>
     </row>
     <row r="4">
@@ -1121,7 +1132,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1227,6 +1238,9 @@
       </c>
       <c r="AU4" t="n">
         <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1.474021672511896</v>
       </c>
     </row>
     <row r="5">
@@ -1308,7 +1322,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1414,6 +1428,9 @@
       </c>
       <c r="AU5" t="n">
         <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>2.701709209670284</v>
       </c>
     </row>
     <row r="6">
@@ -1495,7 +1512,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1597,6 +1614,9 @@
       </c>
       <c r="AU6" t="n">
         <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>2.701709209670284</v>
       </c>
     </row>
     <row r="7">
@@ -1678,7 +1698,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1782,6 +1802,9 @@
       </c>
       <c r="AU7" t="n">
         <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1.162368267425379</v>
       </c>
     </row>
     <row r="8">
@@ -1863,7 +1886,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1965,6 +1988,9 @@
       </c>
       <c r="AU8" t="n">
         <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1.162368267425379</v>
       </c>
     </row>
     <row r="9">
@@ -2046,7 +2072,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2148,6 +2174,9 @@
       </c>
       <c r="AU9" t="n">
         <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>2.45790441131264</v>
       </c>
     </row>
     <row r="10">
@@ -2229,7 +2258,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2333,6 +2362,9 @@
       </c>
       <c r="AU10" t="n">
         <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>2.793176854976991</v>
       </c>
     </row>
     <row r="11">
@@ -2414,7 +2446,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2516,6 +2548,9 @@
       </c>
       <c r="AU11" t="n">
         <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.8856972362646189</v>
       </c>
     </row>
     <row r="12">
@@ -2597,7 +2632,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2699,6 +2734,9 @@
       </c>
       <c r="AU12" t="n">
         <v>1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>2.732660761303634</v>
       </c>
     </row>
     <row r="13">
@@ -2780,7 +2818,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2882,6 +2920,9 @@
       </c>
       <c r="AU13" t="n">
         <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>2.732660761303634</v>
       </c>
     </row>
     <row r="14">
@@ -2963,7 +3004,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -3067,6 +3108,9 @@
       </c>
       <c r="AU14" t="n">
         <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1.888565802171115</v>
       </c>
     </row>
     <row r="15">
@@ -3148,7 +3192,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -3250,6 +3294,9 @@
       </c>
       <c r="AU15" t="n">
         <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>2.732660761303634</v>
       </c>
     </row>
     <row r="16">
@@ -3331,7 +3378,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -3433,6 +3480,9 @@
       </c>
       <c r="AU16" t="n">
         <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.8856972362646189</v>
       </c>
     </row>
     <row r="17">
@@ -3514,7 +3564,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -3616,6 +3666,9 @@
       </c>
       <c r="AU17" t="n">
         <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>3.551225515372408</v>
       </c>
     </row>
     <row r="18">
@@ -3697,7 +3750,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgium </t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -3799,6 +3852,9 @@
       </c>
       <c r="AU18" t="n">
         <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>2.321737964326417</v>
       </c>
     </row>
     <row r="19">
@@ -3880,7 +3936,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -3982,6 +4038,9 @@
       </c>
       <c r="AU19" t="n">
         <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>2.732660761303634</v>
       </c>
     </row>
     <row r="20">
@@ -4063,7 +4122,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -4165,6 +4224,9 @@
       </c>
       <c r="AU20" t="n">
         <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>3.855736152214291</v>
       </c>
     </row>
     <row r="21">
@@ -4246,7 +4308,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -4348,6 +4410,9 @@
       </c>
       <c r="AU21" t="n">
         <v>1</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>2.380694024870664</v>
       </c>
     </row>
     <row r="22">
@@ -4429,7 +4494,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -4533,6 +4598,9 @@
       </c>
       <c r="AU22" t="n">
         <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>2.380694024870664</v>
       </c>
     </row>
     <row r="23">
@@ -4614,7 +4682,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -4718,6 +4786,9 @@
       </c>
       <c r="AU23" t="n">
         <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>4.073628449942746</v>
       </c>
     </row>
     <row r="24">
@@ -4799,7 +4870,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -4901,6 +4972,9 @@
       </c>
       <c r="AU24" t="n">
         <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>2.714064517932499</v>
       </c>
     </row>
     <row r="25">
@@ -4982,7 +5056,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -5084,6 +5158,9 @@
       </c>
       <c r="AU25" t="n">
         <v>1</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>3.855736152214291</v>
       </c>
     </row>
     <row r="26">
@@ -5165,7 +5242,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -5269,6 +5346,9 @@
       </c>
       <c r="AU26" t="n">
         <v>1</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>4.073628449942746</v>
       </c>
     </row>
     <row r="27">
@@ -5350,7 +5430,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -5454,6 +5534,9 @@
       </c>
       <c r="AU27" t="n">
         <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>4.073628449942746</v>
       </c>
     </row>
     <row r="28">
@@ -5535,7 +5618,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Finland </t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -5639,6 +5722,9 @@
       </c>
       <c r="AU28" t="n">
         <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>4.019573228041025</v>
       </c>
     </row>
     <row r="29">
@@ -5720,7 +5806,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -5822,6 +5908,9 @@
       </c>
       <c r="AU29" t="n">
         <v>1</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>3.855736152214291</v>
       </c>
     </row>
     <row r="30">
@@ -5901,7 +5990,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -6003,6 +6092,9 @@
       </c>
       <c r="AU30" t="n">
         <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1.799479905207875</v>
       </c>
     </row>
     <row r="31">
@@ -6082,7 +6174,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Finland </t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -6186,6 +6278,9 @@
       </c>
       <c r="AU31" t="n">
         <v>1</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>4.019573228041025</v>
       </c>
     </row>
     <row r="32">
@@ -6267,7 +6362,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -6371,6 +6466,9 @@
       </c>
       <c r="AU32" t="n">
         <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>2.624880019712506</v>
       </c>
     </row>
     <row r="33">
@@ -6452,7 +6550,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -6556,6 +6654,9 @@
       </c>
       <c r="AU33" t="n">
         <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>2.624880019712506</v>
       </c>
     </row>
     <row r="34">
@@ -6637,7 +6738,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -6741,6 +6842,9 @@
       </c>
       <c r="AU34" t="n">
         <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>2.624880019712506</v>
       </c>
     </row>
     <row r="35">
@@ -6822,7 +6926,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -6924,6 +7028,9 @@
       </c>
       <c r="AU35" t="n">
         <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>2.530481861964986</v>
       </c>
     </row>
     <row r="36">
@@ -7005,7 +7112,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Norway </t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -7107,6 +7214,9 @@
       </c>
       <c r="AU36" t="n">
         <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>2.914039986071742</v>
       </c>
     </row>
     <row r="37">
@@ -7188,7 +7298,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -7292,6 +7402,9 @@
       </c>
       <c r="AU37" t="n">
         <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>2.624880019712506</v>
       </c>
     </row>
     <row r="38">
@@ -7373,7 +7486,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -7477,6 +7590,9 @@
       </c>
       <c r="AU38" t="n">
         <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>2.890107189624786</v>
       </c>
     </row>
     <row r="39">
@@ -7558,7 +7674,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -7660,6 +7776,9 @@
       </c>
       <c r="AU39" t="n">
         <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>3.885306508388879</v>
       </c>
     </row>
     <row r="40">
@@ -7741,7 +7860,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -7845,6 +7964,9 @@
       </c>
       <c r="AU40" t="n">
         <v>1</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>3.916375817781798</v>
       </c>
     </row>
     <row r="41">
@@ -7926,7 +8048,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -8028,6 +8150,9 @@
       </c>
       <c r="AU41" t="n">
         <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>3.224911317116664</v>
       </c>
     </row>
     <row r="42">
@@ -8109,7 +8234,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -8213,6 +8338,9 @@
       </c>
       <c r="AU42" t="n">
         <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>2.890107189624786</v>
       </c>
     </row>
     <row r="43">
@@ -8294,7 +8422,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -8398,6 +8526,9 @@
       </c>
       <c r="AU43" t="n">
         <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>3.916375817781798</v>
       </c>
     </row>
     <row r="44">
@@ -8479,7 +8610,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgium </t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -8581,6 +8712,9 @@
       </c>
       <c r="AU44" t="n">
         <v>0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>3.676924838925231</v>
       </c>
     </row>
     <row r="45">
@@ -8662,7 +8796,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgium </t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -8764,6 +8898,9 @@
       </c>
       <c r="AU45" t="n">
         <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0.4469049477175275</v>
       </c>
     </row>
     <row r="46">
@@ -8845,7 +8982,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -8947,6 +9084,9 @@
       </c>
       <c r="AU46" t="n">
         <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0.9104031961453529</v>
       </c>
     </row>
     <row r="47">
@@ -9028,7 +9168,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -9133,6 +9273,9 @@
       </c>
       <c r="AU47" t="n">
         <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>-0.2487972981322457</v>
       </c>
     </row>
     <row r="48">
@@ -9214,7 +9357,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -9316,6 +9459,9 @@
       </c>
       <c r="AU48" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>-1.02313847687941</v>
       </c>
     </row>
     <row r="49">
@@ -9397,7 +9543,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -9499,6 +9645,9 @@
       </c>
       <c r="AU49" t="n">
         <v>0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>-1.02313847687941</v>
       </c>
     </row>
     <row r="50">
@@ -9580,7 +9729,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgium </t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -9682,6 +9831,9 @@
       </c>
       <c r="AU50" t="n">
         <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0.4469049477175275</v>
       </c>
     </row>
     <row r="51">
@@ -9763,7 +9915,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -9883,6 +10035,9 @@
       </c>
       <c r="AU51" t="n">
         <v>0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>-0.9231230829503119</v>
       </c>
     </row>
     <row r="52">
@@ -9964,7 +10119,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
@@ -10068,6 +10223,9 @@
       </c>
       <c r="AU52" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>-1.02313847687941</v>
       </c>
     </row>
     <row r="53">
@@ -10149,7 +10307,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Finland </t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -10253,6 +10411,9 @@
       </c>
       <c r="AU53" t="n">
         <v>0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0.7844312192730314</v>
       </c>
     </row>
     <row r="54">
@@ -10334,7 +10495,7 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
@@ -10438,6 +10599,9 @@
       </c>
       <c r="AU54" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>-0.2487972981322457</v>
       </c>
     </row>
     <row r="55">
@@ -10519,7 +10683,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgium </t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -10621,6 +10785,9 @@
       </c>
       <c r="AU55" t="n">
         <v>0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0.4469049477175275</v>
       </c>
     </row>
     <row r="56">
@@ -10702,7 +10869,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -10806,6 +10973,9 @@
       </c>
       <c r="AU56" t="n">
         <v>0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>0.3801714255223629</v>
       </c>
     </row>
     <row r="57">
@@ -10887,7 +11057,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
@@ -10991,6 +11161,9 @@
       </c>
       <c r="AU57" t="n">
         <v>0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>-0.9231230829503119</v>
       </c>
     </row>
     <row r="58">
@@ -11072,7 +11245,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
@@ -11174,6 +11347,9 @@
       </c>
       <c r="AU58" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>0.3801714255223629</v>
       </c>
     </row>
     <row r="59">
@@ -11255,7 +11431,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
@@ -11359,6 +11535,9 @@
       </c>
       <c r="AU59" t="n">
         <v>0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>-1.02313847687941</v>
       </c>
     </row>
     <row r="60">
@@ -11440,7 +11619,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
@@ -11542,6 +11721,9 @@
       </c>
       <c r="AU60" t="n">
         <v>1</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>-2.297374630715453</v>
       </c>
     </row>
     <row r="61">
@@ -11623,7 +11805,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -11727,6 +11909,9 @@
       </c>
       <c r="AU61" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>-5.545164537717056</v>
       </c>
     </row>
     <row r="62">
@@ -11808,7 +11993,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -11912,6 +12097,9 @@
       </c>
       <c r="AU62" t="n">
         <v>0</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>-2.824551502889619</v>
       </c>
     </row>
     <row r="63">
@@ -11993,7 +12181,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -12097,6 +12285,9 @@
       </c>
       <c r="AU63" t="n">
         <v>0</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>-5.305154032510998</v>
       </c>
     </row>
     <row r="64">
@@ -12178,7 +12369,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -12282,6 +12473,9 @@
       </c>
       <c r="AU64" t="n">
         <v>0</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>-4.620553719568605</v>
       </c>
     </row>
     <row r="65">
@@ -12363,7 +12557,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
@@ -12467,6 +12661,9 @@
       </c>
       <c r="AU65" t="n">
         <v>0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>-3.665290445065949</v>
       </c>
     </row>
     <row r="66">
@@ -12548,7 +12745,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
@@ -12652,6 +12849,9 @@
       </c>
       <c r="AU66" t="n">
         <v>0</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>-4.255573742711448</v>
       </c>
     </row>
     <row r="67">
@@ -12733,7 +12933,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
@@ -12837,6 +13037,9 @@
       </c>
       <c r="AU67" t="n">
         <v>0</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>-2.297374630715453</v>
       </c>
     </row>
     <row r="68">
@@ -12918,7 +13121,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
@@ -13022,6 +13225,9 @@
       </c>
       <c r="AU68" t="n">
         <v>0.6</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>-5.545164537717056</v>
       </c>
     </row>
     <row r="69">
@@ -13103,7 +13309,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
@@ -13205,6 +13411,9 @@
       </c>
       <c r="AU69" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>-5.545164537717056</v>
       </c>
     </row>
     <row r="70">
@@ -13286,7 +13495,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -13388,6 +13597,9 @@
       </c>
       <c r="AU70" t="n">
         <v>0</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>-4.255573742711448</v>
       </c>
     </row>
     <row r="71">
@@ -13469,7 +13681,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -13573,6 +13785,9 @@
       </c>
       <c r="AU71" t="n">
         <v>0</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>-4.620553719568605</v>
       </c>
     </row>
     <row r="72">
@@ -13654,7 +13869,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
@@ -13756,6 +13971,9 @@
       </c>
       <c r="AU72" t="n">
         <v>1</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>4.146767545324366</v>
       </c>
     </row>
     <row r="73">
@@ -13837,7 +14055,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
@@ -13941,6 +14159,9 @@
       </c>
       <c r="AU73" t="n">
         <v>0</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>2.233315126310799</v>
       </c>
     </row>
     <row r="74">
@@ -14022,7 +14243,7 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
@@ -14126,6 +14347,9 @@
       </c>
       <c r="AU74" t="n">
         <v>1</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>2.233315126310799</v>
       </c>
     </row>
     <row r="75">
@@ -14207,7 +14431,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
@@ -14309,6 +14533,9 @@
       </c>
       <c r="AU75" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>4.146767545324366</v>
       </c>
     </row>
     <row r="76">
@@ -14390,7 +14617,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
@@ -14492,6 +14719,9 @@
       </c>
       <c r="AU76" t="n">
         <v>1</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>4.146767545324366</v>
       </c>
     </row>
     <row r="77">
@@ -14573,7 +14803,7 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
@@ -14677,6 +14907,9 @@
       </c>
       <c r="AU77" t="n">
         <v>0</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>5.750735843227247</v>
       </c>
     </row>
     <row r="78">
@@ -14758,7 +14991,7 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ireland </t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
@@ -14862,6 +15095,9 @@
       </c>
       <c r="AU78" t="n">
         <v>0</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.682972350562579</v>
       </c>
     </row>
     <row r="79">
@@ -14943,7 +15179,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
@@ -15047,6 +15283,9 @@
       </c>
       <c r="AU79" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>2.000324726999807</v>
       </c>
     </row>
     <row r="80">
@@ -15128,7 +15367,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
@@ -15230,6 +15469,9 @@
       </c>
       <c r="AU80" t="n">
         <v>0</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>4.146767545324366</v>
       </c>
     </row>
     <row r="81">
@@ -15311,7 +15553,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ireland </t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
@@ -15415,6 +15657,9 @@
       </c>
       <c r="AU81" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.682972350562579</v>
       </c>
     </row>
     <row r="82">
@@ -15496,7 +15741,7 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
@@ -15600,6 +15845,9 @@
       </c>
       <c r="AU82" t="n">
         <v>0</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>4.146767545324366</v>
       </c>
     </row>
     <row r="83">
@@ -15681,7 +15929,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
@@ -15783,6 +16031,9 @@
       </c>
       <c r="AU83" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>4.146767545324366</v>
       </c>
     </row>
     <row r="84">
@@ -15864,7 +16115,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
@@ -15966,6 +16217,9 @@
       </c>
       <c r="AU84" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.773345206572458</v>
       </c>
     </row>
     <row r="85">
@@ -16047,7 +16301,7 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
@@ -16151,6 +16405,9 @@
       </c>
       <c r="AU85" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.138362347448933</v>
       </c>
     </row>
     <row r="86">
@@ -16232,7 +16489,7 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
@@ -16336,6 +16593,9 @@
       </c>
       <c r="AU86" t="n">
         <v>0</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.138362347448933</v>
       </c>
     </row>
     <row r="87">
@@ -16417,7 +16677,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
@@ -16521,6 +16781,9 @@
       </c>
       <c r="AU87" t="n">
         <v>0</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>3.163910481452035</v>
       </c>
     </row>
     <row r="88">
@@ -16602,7 +16865,7 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
@@ -16704,6 +16967,9 @@
       </c>
       <c r="AU88" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>3.757968865863475</v>
       </c>
     </row>
     <row r="89">
@@ -16785,7 +17051,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -16889,6 +17155,9 @@
       </c>
       <c r="AU89" t="n">
         <v>0</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>3.757968865863475</v>
       </c>
     </row>
     <row r="90">
@@ -16970,7 +17239,7 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
@@ -17074,6 +17343,9 @@
       </c>
       <c r="AU90" t="n">
         <v>0</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>3.163910481452035</v>
       </c>
     </row>
     <row r="91">
@@ -17155,7 +17427,7 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
@@ -17259,6 +17531,9 @@
       </c>
       <c r="AU91" t="n">
         <v>1</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>3.163910481452035</v>
       </c>
     </row>
     <row r="92">
@@ -17340,7 +17615,7 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
@@ -17444,6 +17719,9 @@
       </c>
       <c r="AU92" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.138362347448933</v>
       </c>
     </row>
     <row r="93">
@@ -17525,7 +17803,7 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
@@ -17627,6 +17905,9 @@
       </c>
       <c r="AU93" t="n">
         <v>0</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>2.437576568770794</v>
       </c>
     </row>
     <row r="94">
@@ -17708,7 +17989,7 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
@@ -17810,6 +18091,9 @@
       </c>
       <c r="AU94" t="n">
         <v>1</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.138362347448933</v>
       </c>
     </row>
     <row r="95">
@@ -17891,7 +18175,7 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
@@ -17995,6 +18279,9 @@
       </c>
       <c r="AU95" t="n">
         <v>0.25</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>0.4742913058555445</v>
       </c>
     </row>
     <row r="96">
@@ -18076,7 +18363,7 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
@@ -18178,6 +18465,9 @@
       </c>
       <c r="AU96" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.50899837441014</v>
       </c>
     </row>
     <row r="97">
@@ -18259,7 +18549,7 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
@@ -18361,6 +18651,9 @@
       </c>
       <c r="AU97" t="n">
         <v>0</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>-2.865113672910695</v>
       </c>
     </row>
     <row r="98">
@@ -18442,7 +18735,7 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
@@ -18546,6 +18839,9 @@
       </c>
       <c r="AU98" t="n">
         <v>0</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>-3.125238795438165</v>
       </c>
     </row>
     <row r="99">
@@ -18627,7 +18923,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
@@ -18731,6 +19027,9 @@
       </c>
       <c r="AU99" t="n">
         <v>1</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.50899837441014</v>
       </c>
     </row>
     <row r="100">
@@ -18812,7 +19111,7 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
@@ -18914,6 +19213,9 @@
       </c>
       <c r="AU100" t="n">
         <v>1</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>0.4742913058555445</v>
       </c>
     </row>
     <row r="101">
@@ -18995,7 +19297,7 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
@@ -19097,6 +19399,9 @@
       </c>
       <c r="AU101" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.179253833251082</v>
       </c>
     </row>
     <row r="102">
@@ -19178,7 +19483,7 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
@@ -19280,6 +19585,9 @@
       </c>
       <c r="AU102" t="n">
         <v>0</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>-0.4144657210708829</v>
       </c>
     </row>
     <row r="103">
@@ -19361,7 +19669,7 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ireland </t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
@@ -19465,6 +19773,9 @@
       </c>
       <c r="AU103" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>-0.3989599645054511</v>
       </c>
     </row>
     <row r="104">
@@ -19546,7 +19857,7 @@
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
@@ -19650,6 +19961,9 @@
       </c>
       <c r="AU104" t="n">
         <v>0</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.50899837441014</v>
       </c>
     </row>
     <row r="105">
@@ -19729,7 +20043,7 @@
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
@@ -19833,6 +20147,9 @@
       </c>
       <c r="AU105" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>0.7817564459134019</v>
       </c>
     </row>
     <row r="106">
@@ -19914,7 +20231,7 @@
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T106" t="inlineStr">
@@ -20016,6 +20333,9 @@
       </c>
       <c r="AU106" t="n">
         <v>1</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.799921493626627</v>
       </c>
     </row>
     <row r="107">
@@ -20097,7 +20417,7 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
@@ -20199,6 +20519,9 @@
       </c>
       <c r="AU107" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.792144057074836</v>
       </c>
     </row>
     <row r="108">
@@ -20280,7 +20603,7 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
@@ -20382,6 +20705,9 @@
       </c>
       <c r="AU108" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>-1.818025061042832</v>
       </c>
     </row>
     <row r="109">
@@ -20463,7 +20789,7 @@
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
@@ -20565,6 +20891,9 @@
       </c>
       <c r="AU109" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>-1.427322191818803</v>
       </c>
     </row>
     <row r="110">
@@ -20646,7 +20975,7 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
@@ -20766,6 +21095,9 @@
       </c>
       <c r="AU110" t="n">
         <v>0</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>0.386224576109953</v>
       </c>
     </row>
     <row r="111">
@@ -20847,7 +21179,7 @@
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denmark </t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
@@ -20949,6 +21281,9 @@
       </c>
       <c r="AU111" t="n">
         <v>0</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.392673470172952</v>
       </c>
     </row>
     <row r="112">
@@ -21030,7 +21365,7 @@
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgium </t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="T112" t="inlineStr">
@@ -21134,6 +21469,9 @@
       </c>
       <c r="AU112" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>0.3054944785623803</v>
       </c>
     </row>
     <row r="113">
@@ -21215,7 +21553,7 @@
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
@@ -21319,6 +21657,9 @@
       </c>
       <c r="AU113" t="n">
         <v>0.4</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>0.7817564459134019</v>
       </c>
     </row>
     <row r="114">
@@ -21400,7 +21741,7 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
@@ -21504,6 +21845,9 @@
       </c>
       <c r="AU114" t="n">
         <v>0</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>2.295763808728395</v>
       </c>
     </row>
     <row r="115">
@@ -21585,7 +21929,7 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
@@ -21687,6 +22031,9 @@
       </c>
       <c r="AU115" t="n">
         <v>0.4</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>2.349881275086261</v>
       </c>
     </row>
     <row r="116">
@@ -21768,7 +22115,7 @@
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
@@ -21870,6 +22217,9 @@
       </c>
       <c r="AU116" t="n">
         <v>1</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>1.520485922798187</v>
       </c>
     </row>
     <row r="117">
@@ -21951,7 +22301,7 @@
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
@@ -22055,6 +22405,9 @@
       </c>
       <c r="AU117" t="n">
         <v>0</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.612610074491229</v>
       </c>
     </row>
     <row r="118">
@@ -22136,7 +22489,7 @@
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
@@ -22238,6 +22591,9 @@
       </c>
       <c r="AU118" t="n">
         <v>0</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>3.194637312802101</v>
       </c>
     </row>
     <row r="119">
@@ -22319,7 +22675,7 @@
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
@@ -22421,6 +22777,9 @@
       </c>
       <c r="AU119" t="n">
         <v>0</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>2.169498928790787</v>
       </c>
     </row>
     <row r="120">
@@ -22502,7 +22861,7 @@
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
@@ -22606,6 +22965,9 @@
       </c>
       <c r="AU120" t="n">
         <v>0.4</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>3.194637312802101</v>
       </c>
     </row>
     <row r="121">
@@ -22687,7 +23049,7 @@
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
@@ -22789,6 +23151,9 @@
       </c>
       <c r="AU121" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>2.169498928790787</v>
       </c>
     </row>
     <row r="122">
@@ -22870,7 +23235,7 @@
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ireland </t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="T122" t="inlineStr">
@@ -22974,6 +23339,9 @@
       </c>
       <c r="AU122" t="n">
         <v>0</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>9.336033728686232</v>
       </c>
     </row>
     <row r="123">
@@ -23055,7 +23423,7 @@
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
@@ -23157,6 +23525,9 @@
       </c>
       <c r="AU123" t="n">
         <v>0.6</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>3.194637312802101</v>
       </c>
     </row>
     <row r="124">
@@ -23238,7 +23609,7 @@
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denmark </t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="T124" t="inlineStr">
@@ -23340,6 +23711,9 @@
       </c>
       <c r="AU124" t="n">
         <v>0</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>1.277999793806444</v>
       </c>
     </row>
     <row r="125">
@@ -23421,7 +23795,7 @@
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T125" t="inlineStr">
@@ -23525,6 +23899,9 @@
       </c>
       <c r="AU125" t="n">
         <v>1</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>2.349881275086261</v>
       </c>
     </row>
     <row r="126">
@@ -23606,7 +23983,7 @@
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T126" t="inlineStr">
@@ -23710,6 +24087,9 @@
       </c>
       <c r="AU126" t="n">
         <v>0</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>3.194637312802101</v>
       </c>
     </row>
     <row r="127">
@@ -23791,7 +24171,7 @@
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
@@ -23896,6 +24276,9 @@
       </c>
       <c r="AU127" t="n">
         <v>0</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>2.349881275086261</v>
       </c>
     </row>
     <row r="128">
@@ -23977,7 +24360,7 @@
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T128" t="inlineStr">
@@ -24081,6 +24464,9 @@
       </c>
       <c r="AU128" t="n">
         <v>1</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>2.295763808728395</v>
       </c>
     </row>
     <row r="129">
@@ -24162,7 +24548,7 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
@@ -24264,6 +24650,9 @@
       </c>
       <c r="AU129" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.612610074491229</v>
       </c>
     </row>
     <row r="130">
@@ -24345,7 +24734,7 @@
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T130" t="inlineStr">
@@ -24449,6 +24838,9 @@
       </c>
       <c r="AU130" t="n">
         <v>0</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.066754734889088</v>
       </c>
     </row>
     <row r="131">
@@ -24530,7 +24922,7 @@
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T131" t="inlineStr">
@@ -24634,6 +25026,9 @@
       </c>
       <c r="AU131" t="n">
         <v>0</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>2.222888449084365</v>
       </c>
     </row>
     <row r="132">
@@ -24715,7 +25110,7 @@
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T132" t="inlineStr">
@@ -24817,6 +25212,9 @@
       </c>
       <c r="AU132" t="n">
         <v>0.7142857142857143</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>4.410140675793414</v>
       </c>
     </row>
     <row r="133">
@@ -24898,7 +25296,7 @@
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denmark </t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="T133" t="inlineStr">
@@ -25000,6 +25398,9 @@
       </c>
       <c r="AU133" t="n">
         <v>0.5714285714285714</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>2.104414587125873</v>
       </c>
     </row>
     <row r="134">
@@ -25081,7 +25482,7 @@
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T134" t="inlineStr">
@@ -25183,6 +25584,9 @@
       </c>
       <c r="AU134" t="n">
         <v>0.4</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>4.060866697185688</v>
       </c>
     </row>
     <row r="135">
@@ -25264,7 +25668,7 @@
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T135" t="inlineStr">
@@ -25368,6 +25772,9 @@
       </c>
       <c r="AU135" t="n">
         <v>0</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>4.410140675793414</v>
       </c>
     </row>
     <row r="136">
@@ -25449,7 +25856,7 @@
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T136" t="inlineStr">
@@ -25551,6 +25958,9 @@
       </c>
       <c r="AU136" t="n">
         <v>0</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>2.120605224217172</v>
       </c>
     </row>
     <row r="137">
@@ -25632,7 +26042,7 @@
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T137" t="inlineStr">
@@ -25736,6 +26146,9 @@
       </c>
       <c r="AU137" t="n">
         <v>0</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.066754734889088</v>
       </c>
     </row>
     <row r="138">
@@ -25817,7 +26230,7 @@
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T138" t="inlineStr">
@@ -25921,6 +26334,9 @@
       </c>
       <c r="AU138" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>2.222888449084365</v>
       </c>
     </row>
     <row r="139">
@@ -26002,7 +26418,7 @@
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T139" t="inlineStr">
@@ -26104,6 +26520,9 @@
       </c>
       <c r="AU139" t="n">
         <v>1</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>4.060866697185688</v>
       </c>
     </row>
     <row r="140">
@@ -26185,7 +26604,7 @@
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T140" t="inlineStr">
@@ -26287,6 +26706,9 @@
       </c>
       <c r="AU140" t="n">
         <v>0</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.652719771746277</v>
       </c>
     </row>
     <row r="141">
@@ -26368,7 +26790,7 @@
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T141" t="inlineStr">
@@ -26472,6 +26894,9 @@
       </c>
       <c r="AU141" t="n">
         <v>0</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>4.060866697185688</v>
       </c>
     </row>
     <row r="142">
@@ -26553,7 +26978,7 @@
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T142" t="inlineStr">
@@ -26657,6 +27082,9 @@
       </c>
       <c r="AU142" t="n">
         <v>0</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>4.410140675793414</v>
       </c>
     </row>
     <row r="143">
@@ -26738,7 +27166,7 @@
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgium </t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="T143" t="inlineStr">
@@ -26842,6 +27270,9 @@
       </c>
       <c r="AU143" t="n">
         <v>0</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.47416438588013</v>
       </c>
     </row>
     <row r="144">
@@ -26923,7 +27354,7 @@
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T144" t="inlineStr">
@@ -27027,6 +27458,9 @@
       </c>
       <c r="AU144" t="n">
         <v>0</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>4.410140675793414</v>
       </c>
     </row>
     <row r="145">
@@ -27108,7 +27542,7 @@
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T145" t="inlineStr">
@@ -27212,6 +27646,9 @@
       </c>
       <c r="AU145" t="n">
         <v>0</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>2.222888449084365</v>
       </c>
     </row>
     <row r="146">
@@ -27293,7 +27730,7 @@
       </c>
       <c r="S146" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T146" t="inlineStr">
@@ -27395,6 +27832,9 @@
       </c>
       <c r="AU146" t="n">
         <v>0.8333333333333334</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>2.222888449084365</v>
       </c>
     </row>
     <row r="147">
@@ -27476,7 +27916,7 @@
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Portugal </t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="T147" t="inlineStr">
@@ -27578,6 +28018,9 @@
       </c>
       <c r="AU147" t="n">
         <v>0.25</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>2.004141093604872</v>
       </c>
     </row>
     <row r="148">
@@ -27659,7 +28102,7 @@
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T148" t="inlineStr">
@@ -27763,6 +28206,9 @@
       </c>
       <c r="AU148" t="n">
         <v>0</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>2.349740804325393</v>
       </c>
     </row>
     <row r="149">
@@ -27844,7 +28290,7 @@
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T149" t="inlineStr">
@@ -27946,6 +28392,9 @@
       </c>
       <c r="AU149" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>2.349740804325393</v>
       </c>
     </row>
     <row r="150">
@@ -28027,7 +28476,7 @@
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T150" t="inlineStr">
@@ -28129,6 +28578,9 @@
       </c>
       <c r="AU150" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>2.294710676842811</v>
       </c>
     </row>
     <row r="151">
@@ -28210,7 +28662,7 @@
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denmark </t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="T151" t="inlineStr">
@@ -28315,6 +28767,9 @@
       </c>
       <c r="AU151" t="n">
         <v>0</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>3.073045474798548</v>
       </c>
     </row>
     <row r="152">
@@ -28396,7 +28851,7 @@
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T152" t="inlineStr">
@@ -28500,6 +28955,9 @@
       </c>
       <c r="AU152" t="n">
         <v>0</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>2.349740804325393</v>
       </c>
     </row>
     <row r="153">
@@ -28581,7 +29039,7 @@
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T153" t="inlineStr">
@@ -28683,6 +29141,9 @@
       </c>
       <c r="AU153" t="n">
         <v>0</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.236221107275099</v>
       </c>
     </row>
     <row r="154">
@@ -28764,7 +29225,7 @@
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Austria </t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="T154" t="inlineStr">
@@ -28866,6 +29327,9 @@
       </c>
       <c r="AU154" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>2.117219670961077</v>
       </c>
     </row>
     <row r="155">
@@ -28947,7 +29411,7 @@
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T155" t="inlineStr">
@@ -29049,6 +29513,9 @@
       </c>
       <c r="AU155" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>2.349740804325393</v>
       </c>
     </row>
     <row r="156">
@@ -29130,7 +29597,7 @@
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T156" t="inlineStr">
@@ -29234,6 +29701,9 @@
       </c>
       <c r="AU156" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>0.860031082016107</v>
       </c>
     </row>
     <row r="157">
@@ -29315,7 +29785,7 @@
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgium </t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="T157" t="inlineStr">
@@ -29417,6 +29887,9 @@
       </c>
       <c r="AU157" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.193502639951106</v>
       </c>
     </row>
     <row r="158">
@@ -29498,7 +29971,7 @@
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T158" t="inlineStr">
@@ -29602,6 +30075,9 @@
       </c>
       <c r="AU158" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.921710077638309</v>
       </c>
     </row>
     <row r="159">
@@ -29683,7 +30159,7 @@
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T159" t="inlineStr">
@@ -29787,6 +30263,9 @@
       </c>
       <c r="AU159" t="n">
         <v>1</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>2.294710676842811</v>
       </c>
     </row>
     <row r="160">
@@ -29868,7 +30347,7 @@
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T160" t="inlineStr">
@@ -29970,6 +30449,9 @@
       </c>
       <c r="AU160" t="n">
         <v>1</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>2.294710676842811</v>
       </c>
     </row>
     <row r="161">
@@ -30051,7 +30533,7 @@
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T161" t="inlineStr">
@@ -30155,6 +30637,9 @@
       </c>
       <c r="AU161" t="n">
         <v>0</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>2.915156028081739</v>
       </c>
     </row>
     <row r="162">
@@ -30236,7 +30721,7 @@
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgium </t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="T162" t="inlineStr">
@@ -30338,6 +30823,9 @@
       </c>
       <c r="AU162" t="n">
         <v>0.4285714285714285</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.193502639951106</v>
       </c>
     </row>
     <row r="163">
@@ -30419,7 +30907,7 @@
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T163" t="inlineStr">
@@ -30521,6 +31009,9 @@
       </c>
       <c r="AU163" t="n">
         <v>0</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>2.068689667099605</v>
       </c>
     </row>
     <row r="164">
@@ -30602,7 +31093,7 @@
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T164" t="inlineStr">
@@ -30706,6 +31197,9 @@
       </c>
       <c r="AU164" t="n">
         <v>1</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>0.860031082016107</v>
       </c>
     </row>
     <row r="165">
@@ -30787,7 +31281,7 @@
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Portugal </t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="T165" t="inlineStr">
@@ -30889,6 +31383,9 @@
       </c>
       <c r="AU165" t="n">
         <v>0</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>2.004141093604872</v>
       </c>
     </row>
     <row r="166">
@@ -30970,7 +31467,7 @@
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgium </t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="T166" t="inlineStr">
@@ -31072,6 +31569,9 @@
       </c>
       <c r="AU166" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.474467656530919</v>
       </c>
     </row>
     <row r="167">
@@ -31153,7 +31653,7 @@
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T167" t="inlineStr">
@@ -31257,6 +31757,9 @@
       </c>
       <c r="AU167" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>2.896042080816301</v>
       </c>
     </row>
     <row r="168">
@@ -31338,7 +31841,7 @@
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T168" t="inlineStr">
@@ -31440,6 +31943,9 @@
       </c>
       <c r="AU168" t="n">
         <v>0</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.603699946483616</v>
       </c>
     </row>
     <row r="169">
@@ -31521,7 +32027,7 @@
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T169" t="inlineStr">
@@ -31625,6 +32131,9 @@
       </c>
       <c r="AU169" t="n">
         <v>0</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>2.716024519315923</v>
       </c>
     </row>
     <row r="170">
@@ -31706,7 +32215,7 @@
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Finland </t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="T170" t="inlineStr">
@@ -31808,6 +32317,9 @@
       </c>
       <c r="AU170" t="n">
         <v>0</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>3.303370161133216</v>
       </c>
     </row>
     <row r="171">
@@ -31889,7 +32401,7 @@
       </c>
       <c r="S171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T171" t="inlineStr">
@@ -31991,6 +32503,9 @@
       </c>
       <c r="AU171" t="n">
         <v>0</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.603699946483616</v>
       </c>
     </row>
     <row r="172">
@@ -32072,7 +32587,7 @@
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T172" t="inlineStr">
@@ -32174,6 +32689,9 @@
       </c>
       <c r="AU172" t="n">
         <v>1</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>2.716024519315923</v>
       </c>
     </row>
     <row r="173">
@@ -32255,7 +32773,7 @@
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T173" t="inlineStr">
@@ -32359,6 +32877,9 @@
       </c>
       <c r="AU173" t="n">
         <v>0</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>2.083614850620762</v>
       </c>
     </row>
     <row r="174">
@@ -32440,7 +32961,7 @@
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T174" t="inlineStr">
@@ -32542,6 +33063,9 @@
       </c>
       <c r="AU174" t="n">
         <v>0</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.362799557114158</v>
       </c>
     </row>
     <row r="175">
@@ -32623,7 +33147,7 @@
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T175" t="inlineStr">
@@ -32725,6 +33249,9 @@
       </c>
       <c r="AU175" t="n">
         <v>0.4</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>2.896042080816301</v>
       </c>
     </row>
     <row r="176">
@@ -32806,7 +33333,7 @@
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T176" t="inlineStr">
@@ -32910,6 +33437,9 @@
       </c>
       <c r="AU176" t="n">
         <v>1</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>2.656504893099722</v>
       </c>
     </row>
     <row r="177">
@@ -32991,7 +33521,7 @@
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T177" t="inlineStr">
@@ -33093,6 +33623,9 @@
       </c>
       <c r="AU177" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>2.656504893099722</v>
       </c>
     </row>
     <row r="178">
@@ -33174,7 +33707,7 @@
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T178" t="inlineStr">
@@ -33278,6 +33811,9 @@
       </c>
       <c r="AU178" t="n">
         <v>0</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.825156014947169</v>
       </c>
     </row>
     <row r="179">
@@ -33359,7 +33895,7 @@
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T179" t="inlineStr">
@@ -33463,6 +33999,9 @@
       </c>
       <c r="AU179" t="n">
         <v>0</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>2.716024519315923</v>
       </c>
     </row>
     <row r="180">
@@ -33542,7 +34081,7 @@
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Finland </t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="T180" t="inlineStr">
@@ -33644,6 +34183,9 @@
       </c>
       <c r="AU180" t="n">
         <v>0</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>3.303370161133216</v>
       </c>
     </row>
     <row r="181">
@@ -33725,7 +34267,7 @@
       </c>
       <c r="S181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Finland </t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="T181" t="inlineStr">
@@ -33827,6 +34369,9 @@
       </c>
       <c r="AU181" t="n">
         <v>0</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.192977729885044</v>
       </c>
     </row>
     <row r="182">
@@ -33908,7 +34453,7 @@
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T182" t="inlineStr">
@@ -34010,6 +34555,9 @@
       </c>
       <c r="AU182" t="n">
         <v>0.375</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>2.258740396249522</v>
       </c>
     </row>
     <row r="183">
@@ -34091,7 +34639,7 @@
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T183" t="inlineStr">
@@ -34193,6 +34741,9 @@
       </c>
       <c r="AU183" t="n">
         <v>1</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>2.395411203642468</v>
       </c>
     </row>
     <row r="184">
@@ -34274,7 +34825,7 @@
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T184" t="inlineStr">
@@ -34378,6 +34929,9 @@
       </c>
       <c r="AU184" t="n">
         <v>1</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.116443109262249</v>
       </c>
     </row>
     <row r="185">
@@ -34459,7 +35013,7 @@
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T185" t="inlineStr">
@@ -34563,6 +35117,9 @@
       </c>
       <c r="AU185" t="n">
         <v>0</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>2.860445794616325</v>
       </c>
     </row>
     <row r="186">
@@ -34644,7 +35201,7 @@
       </c>
       <c r="S186" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T186" t="inlineStr">
@@ -34746,6 +35303,9 @@
       </c>
       <c r="AU186" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.405190266092731</v>
       </c>
     </row>
     <row r="187">
@@ -34827,7 +35387,7 @@
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Finland </t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="T187" t="inlineStr">
@@ -34929,6 +35489,9 @@
       </c>
       <c r="AU187" t="n">
         <v>1</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.192977729885044</v>
       </c>
     </row>
     <row r="188">
@@ -35010,7 +35573,7 @@
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T188" t="inlineStr">
@@ -35114,6 +35677,9 @@
       </c>
       <c r="AU188" t="n">
         <v>0.6</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.405190266092731</v>
       </c>
     </row>
     <row r="189">
@@ -35195,7 +35761,7 @@
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T189" t="inlineStr">
@@ -35299,6 +35865,9 @@
       </c>
       <c r="AU189" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.405190266092731</v>
       </c>
     </row>
     <row r="190">
@@ -35380,7 +35949,7 @@
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T190" t="inlineStr">
@@ -35484,6 +36053,9 @@
       </c>
       <c r="AU190" t="n">
         <v>1</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>2.860445794616325</v>
       </c>
     </row>
     <row r="191">
@@ -35565,7 +36137,7 @@
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T191" t="inlineStr">
@@ -35669,6 +36241,9 @@
       </c>
       <c r="AU191" t="n">
         <v>1</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>2.860445794616325</v>
       </c>
     </row>
     <row r="192">
@@ -35750,7 +36325,7 @@
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T192" t="inlineStr">
@@ -35852,6 +36427,9 @@
       </c>
       <c r="AU192" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>2.395411203642468</v>
       </c>
     </row>
     <row r="193">
@@ -35933,7 +36511,7 @@
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T193" t="inlineStr">
@@ -36037,6 +36615,9 @@
       </c>
       <c r="AU193" t="n">
         <v>0</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.405190266092731</v>
       </c>
     </row>
     <row r="194">
@@ -36118,7 +36699,7 @@
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T194" t="inlineStr">
@@ -36222,6 +36803,9 @@
       </c>
       <c r="AU194" t="n">
         <v>0</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.64590872932709</v>
       </c>
     </row>
     <row r="195">
@@ -36303,7 +36887,7 @@
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T195" t="inlineStr">
@@ -36407,6 +36991,9 @@
       </c>
       <c r="AU195" t="n">
         <v>0</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.64590872932709</v>
       </c>
     </row>
     <row r="196">
@@ -36488,7 +37075,7 @@
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T196" t="inlineStr">
@@ -36592,6 +37179,9 @@
       </c>
       <c r="AU196" t="n">
         <v>0.4444444444444444</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.405190266092731</v>
       </c>
     </row>
     <row r="197">
@@ -36673,7 +37263,7 @@
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T197" t="inlineStr">
@@ -36775,6 +37365,9 @@
       </c>
       <c r="AU197" t="n">
         <v>0</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>0.4291625343719119</v>
       </c>
     </row>
     <row r="198">
@@ -36856,7 +37449,7 @@
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Finland </t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="T198" t="inlineStr">
@@ -36960,6 +37553,9 @@
       </c>
       <c r="AU198" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.349738438261227</v>
       </c>
     </row>
     <row r="199">
@@ -37041,7 +37637,7 @@
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T199" t="inlineStr">
@@ -37143,6 +37739,9 @@
       </c>
       <c r="AU199" t="n">
         <v>1</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>0.9878933491675781</v>
       </c>
     </row>
     <row r="200">
@@ -37224,7 +37823,7 @@
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T200" t="inlineStr">
@@ -37326,6 +37925,9 @@
       </c>
       <c r="AU200" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>2.027446476396349</v>
       </c>
     </row>
     <row r="201">
@@ -37407,7 +38009,7 @@
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T201" t="inlineStr">
@@ -37511,6 +38113,9 @@
       </c>
       <c r="AU201" t="n">
         <v>0</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>2.549647852530484</v>
       </c>
     </row>
     <row r="202">
@@ -37592,7 +38197,7 @@
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T202" t="inlineStr">
@@ -37696,6 +38301,9 @@
       </c>
       <c r="AU202" t="n">
         <v>0</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.624475159475324</v>
       </c>
     </row>
     <row r="203">
@@ -37777,7 +38385,7 @@
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T203" t="inlineStr">
@@ -37881,6 +38489,9 @@
       </c>
       <c r="AU203" t="n">
         <v>1</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>0.9878933491675781</v>
       </c>
     </row>
     <row r="204">
@@ -37962,7 +38573,7 @@
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Finland </t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="T204" t="inlineStr">
@@ -38066,6 +38677,9 @@
       </c>
       <c r="AU204" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.349738438261227</v>
       </c>
     </row>
     <row r="205">
@@ -38147,7 +38761,7 @@
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T205" t="inlineStr">
@@ -38251,6 +38865,9 @@
       </c>
       <c r="AU205" t="n">
         <v>0</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.624475159475324</v>
       </c>
     </row>
     <row r="206">
@@ -38332,7 +38949,7 @@
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T206" t="inlineStr">
@@ -38434,6 +39051,9 @@
       </c>
       <c r="AU206" t="n">
         <v>1</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>2.027446476396349</v>
       </c>
     </row>
     <row r="207">
@@ -38515,7 +39135,7 @@
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T207" t="inlineStr">
@@ -38617,6 +39237,9 @@
       </c>
       <c r="AU207" t="n">
         <v>1</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>0.9878933491675781</v>
       </c>
     </row>
     <row r="208">
@@ -38698,7 +39321,7 @@
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T208" t="inlineStr">
@@ -38800,6 +39423,9 @@
       </c>
       <c r="AU208" t="n">
         <v>1</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.624475159475324</v>
       </c>
     </row>
     <row r="209">
@@ -38881,7 +39507,7 @@
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T209" t="inlineStr">
@@ -38983,6 +39609,9 @@
       </c>
       <c r="AU209" t="n">
         <v>0</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>0.9878933491675781</v>
       </c>
     </row>
     <row r="210">
@@ -39064,7 +39693,7 @@
       </c>
       <c r="S210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ireland </t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="T210" t="inlineStr">
@@ -39166,6 +39795,9 @@
       </c>
       <c r="AU210" t="n">
         <v>0</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>5.040550288017997</v>
       </c>
     </row>
     <row r="211">
@@ -39247,7 +39879,7 @@
       </c>
       <c r="S211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T211" t="inlineStr">
@@ -39351,6 +39983,9 @@
       </c>
       <c r="AU211" t="n">
         <v>0</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>0.9878933491675781</v>
       </c>
     </row>
     <row r="212">
@@ -39432,7 +40067,7 @@
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T212" t="inlineStr">
@@ -39536,6 +40171,9 @@
       </c>
       <c r="AU212" t="n">
         <v>0</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.961178531513497</v>
       </c>
     </row>
     <row r="213">
@@ -39617,7 +40255,7 @@
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T213" t="inlineStr">
@@ -39721,6 +40359,9 @@
       </c>
       <c r="AU213" t="n">
         <v>0</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>2.549647852530484</v>
       </c>
     </row>
     <row r="214">
@@ -39802,7 +40443,7 @@
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T214" t="inlineStr">
@@ -39906,6 +40547,9 @@
       </c>
       <c r="AU214" t="n">
         <v>0</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.624475159475324</v>
       </c>
     </row>
     <row r="215">
@@ -39987,7 +40631,7 @@
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T215" t="inlineStr">
@@ -40091,6 +40735,9 @@
       </c>
       <c r="AU215" t="n">
         <v>0</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>2.549647852530484</v>
       </c>
     </row>
     <row r="216">
@@ -40172,7 +40819,7 @@
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T216" t="inlineStr">
@@ -40276,6 +40923,9 @@
       </c>
       <c r="AU216" t="n">
         <v>0</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>2.549647852530484</v>
       </c>
     </row>
     <row r="217">
@@ -40357,7 +41007,7 @@
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T217" t="inlineStr">
@@ -40461,6 +41111,9 @@
       </c>
       <c r="AU217" t="n">
         <v>0</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>2.300091594761966</v>
       </c>
     </row>
     <row r="218">
@@ -40542,7 +41195,7 @@
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T218" t="inlineStr">
@@ -40646,6 +41299,9 @@
       </c>
       <c r="AU218" t="n">
         <v>0</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.624475159475324</v>
       </c>
     </row>
     <row r="219">
@@ -40727,7 +41383,7 @@
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T219" t="inlineStr">
@@ -40831,6 +41487,9 @@
       </c>
       <c r="AU219" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>0.9878933491675781</v>
       </c>
     </row>
     <row r="220">
@@ -40912,7 +41571,7 @@
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T220" t="inlineStr">
@@ -41032,6 +41691,9 @@
       </c>
       <c r="AU220" t="n">
         <v>0</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>-4.095137490646891</v>
       </c>
     </row>
     <row r="221">
@@ -41113,7 +41775,7 @@
       </c>
       <c r="S221" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T221" t="inlineStr">
@@ -41217,6 +41879,9 @@
       </c>
       <c r="AU221" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>-10.2969188737567</v>
       </c>
     </row>
     <row r="222">
@@ -41298,7 +41963,7 @@
       </c>
       <c r="S222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Finland </t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="T222" t="inlineStr">
@@ -41401,6 +42066,9 @@
       </c>
       <c r="AU222" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>-2.491036209772389</v>
       </c>
     </row>
     <row r="223">
@@ -41482,7 +42150,7 @@
       </c>
       <c r="S223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T223" t="inlineStr">
@@ -41584,6 +42252,9 @@
       </c>
       <c r="AU223" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>-4.095137490646891</v>
       </c>
     </row>
     <row r="224">
@@ -41665,7 +42336,7 @@
       </c>
       <c r="S224" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T224" t="inlineStr">
@@ -41767,6 +42438,9 @@
       </c>
       <c r="AU224" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>-7.44064593044142</v>
       </c>
     </row>
     <row r="225">
@@ -41848,7 +42522,7 @@
       </c>
       <c r="S225" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T225" t="inlineStr">
@@ -41952,6 +42626,9 @@
       </c>
       <c r="AU225" t="n">
         <v>0</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>-7.44064593044142</v>
       </c>
     </row>
     <row r="226">
@@ -42033,7 +42710,7 @@
       </c>
       <c r="S226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T226" t="inlineStr">
@@ -42153,6 +42830,9 @@
       </c>
       <c r="AU226" t="n">
         <v>0</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>-2.141737206500537</v>
       </c>
     </row>
     <row r="227">
@@ -42234,7 +42914,7 @@
       </c>
       <c r="S227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T227" t="inlineStr">
@@ -42336,6 +43016,9 @@
       </c>
       <c r="AU227" t="n">
         <v>1</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>-4.095137490646891</v>
       </c>
     </row>
     <row r="228">
@@ -42417,7 +43100,7 @@
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T228" t="inlineStr">
@@ -42521,6 +43204,9 @@
       </c>
       <c r="AU228" t="n">
         <v>0</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>-2.005337503537632</v>
       </c>
     </row>
     <row r="229">
@@ -42602,7 +43288,7 @@
       </c>
       <c r="S229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T229" t="inlineStr">
@@ -42705,6 +43391,9 @@
       </c>
       <c r="AU229" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>-4.095137490646891</v>
       </c>
     </row>
     <row r="230">
@@ -42786,7 +43475,7 @@
       </c>
       <c r="S230" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T230" t="inlineStr">
@@ -42890,6 +43579,9 @@
       </c>
       <c r="AU230" t="n">
         <v>0</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>-7.44064593044142</v>
       </c>
     </row>
     <row r="231">
@@ -42971,7 +43663,7 @@
       </c>
       <c r="S231" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T231" t="inlineStr">
@@ -43073,6 +43765,9 @@
       </c>
       <c r="AU231" t="n">
         <v>0</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>-4.095137490646891</v>
       </c>
     </row>
     <row r="232">
@@ -43154,7 +43849,7 @@
       </c>
       <c r="S232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T232" t="inlineStr">
@@ -43274,6 +43969,9 @@
       </c>
       <c r="AU232" t="n">
         <v>0</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>-4.095137490646891</v>
       </c>
     </row>
     <row r="233">
@@ -43355,7 +44053,7 @@
       </c>
       <c r="S233" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T233" t="inlineStr">
@@ -43459,6 +44157,9 @@
       </c>
       <c r="AU233" t="n">
         <v>0</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>-10.2969188737567</v>
       </c>
     </row>
     <row r="234">
@@ -43540,7 +44241,7 @@
       </c>
       <c r="S234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ireland </t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="T234" t="inlineStr">
@@ -43644,6 +44345,9 @@
       </c>
       <c r="AU234" t="n">
         <v>0</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>7.157898830572094</v>
       </c>
     </row>
     <row r="235">
@@ -43725,7 +44429,7 @@
       </c>
       <c r="S235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T235" t="inlineStr">
@@ -43829,6 +44533,9 @@
       </c>
       <c r="AU235" t="n">
         <v>0</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>-2.141737206500537</v>
       </c>
     </row>
     <row r="236">
@@ -43910,7 +44617,7 @@
       </c>
       <c r="S236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T236" t="inlineStr">
@@ -44012,6 +44719,9 @@
       </c>
       <c r="AU236" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>-10.94007065918665</v>
       </c>
     </row>
     <row r="237">
@@ -44093,7 +44803,7 @@
       </c>
       <c r="S237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T237" t="inlineStr">
@@ -44195,6 +44905,9 @@
       </c>
       <c r="AU237" t="n">
         <v>0</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>-4.095137490646891</v>
       </c>
     </row>
     <row r="238">
@@ -44276,7 +44989,7 @@
       </c>
       <c r="S238" t="inlineStr">
         <is>
-          <t xml:space="preserve">Austria </t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="T238" t="inlineStr">
@@ -44380,6 +45093,9 @@
       </c>
       <c r="AU238" t="n">
         <v>0</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>-6.318255286702083</v>
       </c>
     </row>
     <row r="239">
@@ -44461,7 +45177,7 @@
       </c>
       <c r="S239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T239" t="inlineStr">
@@ -44563,6 +45279,9 @@
       </c>
       <c r="AU239" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>-4.095137490646891</v>
       </c>
     </row>
     <row r="240">
@@ -44644,7 +45363,7 @@
       </c>
       <c r="S240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T240" t="inlineStr">
@@ -44746,6 +45465,9 @@
       </c>
       <c r="AU240" t="n">
         <v>0.6</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>-4.095137490646891</v>
       </c>
     </row>
     <row r="241">
@@ -44827,7 +45549,7 @@
       </c>
       <c r="S241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T241" t="inlineStr">
@@ -44929,6 +45651,9 @@
       </c>
       <c r="AU241" t="n">
         <v>1</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>-10.94007065918665</v>
       </c>
     </row>
     <row r="242">
@@ -45010,7 +45735,7 @@
       </c>
       <c r="S242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T242" t="inlineStr">
@@ -45112,6 +45837,9 @@
       </c>
       <c r="AU242" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>-4.095137490646891</v>
       </c>
     </row>
     <row r="243">
@@ -45193,7 +45921,7 @@
       </c>
       <c r="S243" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T243" t="inlineStr">
@@ -45297,6 +46025,9 @@
       </c>
       <c r="AU243" t="n">
         <v>0</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>-10.2969188737567</v>
       </c>
     </row>
     <row r="244">
@@ -45378,7 +46109,7 @@
       </c>
       <c r="S244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T244" t="inlineStr">
@@ -45480,6 +46211,9 @@
       </c>
       <c r="AU244" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>-4.095137490646891</v>
       </c>
     </row>
     <row r="245">
@@ -45561,7 +46295,7 @@
       </c>
       <c r="S245" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T245" t="inlineStr">
@@ -45665,6 +46399,9 @@
       </c>
       <c r="AU245" t="n">
         <v>1</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>-10.2969188737567</v>
       </c>
     </row>
     <row r="246">
@@ -45746,7 +46483,7 @@
       </c>
       <c r="S246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T246" t="inlineStr">
@@ -45850,6 +46587,9 @@
       </c>
       <c r="AU246" t="n">
         <v>0</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>-8.868221210463872</v>
       </c>
     </row>
     <row r="247">
@@ -45931,7 +46671,7 @@
       </c>
       <c r="S247" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T247" t="inlineStr">
@@ -46035,6 +46775,9 @@
       </c>
       <c r="AU247" t="n">
         <v>1</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>-2.005337503537632</v>
       </c>
     </row>
     <row r="248">
@@ -46116,7 +46859,7 @@
       </c>
       <c r="S248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Austria </t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="T248" t="inlineStr">
@@ -46220,6 +46963,9 @@
       </c>
       <c r="AU248" t="n">
         <v>1</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>-6.318255286702083</v>
       </c>
     </row>
     <row r="249">
@@ -46301,7 +47047,7 @@
       </c>
       <c r="S249" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T249" t="inlineStr">
@@ -46405,6 +47151,9 @@
       </c>
       <c r="AU249" t="n">
         <v>0</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>-10.2969188737567</v>
       </c>
     </row>
     <row r="250">
@@ -46486,7 +47235,7 @@
       </c>
       <c r="S250" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T250" t="inlineStr">
@@ -46590,6 +47339,9 @@
       </c>
       <c r="AU250" t="n">
         <v>0</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>-7.44064593044142</v>
       </c>
     </row>
     <row r="251">
@@ -46671,7 +47423,7 @@
       </c>
       <c r="S251" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T251" t="inlineStr">
@@ -46775,6 +47527,9 @@
       </c>
       <c r="AU251" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>-4.095137490646891</v>
       </c>
     </row>
     <row r="252">
@@ -46856,7 +47611,7 @@
       </c>
       <c r="S252" t="inlineStr">
         <is>
-          <t xml:space="preserve">Austria </t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="T252" t="inlineStr">
@@ -46960,6 +47715,9 @@
       </c>
       <c r="AU252" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>-6.318255286702083</v>
       </c>
     </row>
     <row r="253">
@@ -47041,7 +47799,7 @@
       </c>
       <c r="S253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T253" t="inlineStr">
@@ -47143,6 +47901,9 @@
       </c>
       <c r="AU253" t="n">
         <v>0</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>-4.095137490646891</v>
       </c>
     </row>
     <row r="254">
@@ -47224,7 +47985,7 @@
       </c>
       <c r="S254" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T254" t="inlineStr">
@@ -47328,6 +48089,9 @@
       </c>
       <c r="AU254" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>-10.2969188737567</v>
       </c>
     </row>
     <row r="255">
@@ -47409,7 +48173,7 @@
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T255" t="inlineStr">
@@ -47511,6 +48275,9 @@
       </c>
       <c r="AU255" t="n">
         <v>0</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>-4.095137490646891</v>
       </c>
     </row>
     <row r="256">
@@ -47592,7 +48359,7 @@
       </c>
       <c r="S256" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T256" t="inlineStr">
@@ -47694,6 +48461,9 @@
       </c>
       <c r="AU256" t="n">
         <v>0.7142857142857143</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>-10.2969188737567</v>
       </c>
     </row>
     <row r="257">
@@ -47775,7 +48545,7 @@
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T257" t="inlineStr">
@@ -47877,6 +48647,9 @@
       </c>
       <c r="AU257" t="n">
         <v>0</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>-10.2969188737567</v>
       </c>
     </row>
     <row r="258">
@@ -47958,7 +48731,7 @@
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T258" t="inlineStr">
@@ -48060,6 +48833,9 @@
       </c>
       <c r="AU258" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>-10.2969188737567</v>
       </c>
     </row>
     <row r="259">
@@ -48141,7 +48917,7 @@
       </c>
       <c r="S259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T259" t="inlineStr">
@@ -48243,6 +49019,9 @@
       </c>
       <c r="AU259" t="n">
         <v>0</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>8.931062066007797</v>
       </c>
     </row>
     <row r="260">
@@ -48324,7 +49103,7 @@
       </c>
       <c r="S260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Norway </t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="T260" t="inlineStr">
@@ -48428,6 +49207,9 @@
       </c>
       <c r="AU260" t="n">
         <v>1</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>3.908686776894172</v>
       </c>
     </row>
     <row r="261">
@@ -48509,7 +49291,7 @@
       </c>
       <c r="S261" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T261" t="inlineStr">
@@ -48611,6 +49393,9 @@
       </c>
       <c r="AU261" t="n">
         <v>1</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>6.882337865903551</v>
       </c>
     </row>
     <row r="262">
@@ -48692,7 +49477,7 @@
       </c>
       <c r="S262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T262" t="inlineStr">
@@ -48796,6 +49581,9 @@
       </c>
       <c r="AU262" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>6.683144185002803</v>
       </c>
     </row>
     <row r="263">
@@ -48877,7 +49665,7 @@
       </c>
       <c r="S263" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T263" t="inlineStr">
@@ -48981,6 +49769,9 @@
       </c>
       <c r="AU263" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>3.669999861567348</v>
       </c>
     </row>
     <row r="264">
@@ -49062,7 +49853,7 @@
       </c>
       <c r="S264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T264" t="inlineStr">
@@ -49166,6 +49957,9 @@
       </c>
       <c r="AU264" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>5.937508573074396</v>
       </c>
     </row>
     <row r="265">
@@ -49247,7 +50041,7 @@
       </c>
       <c r="S265" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T265" t="inlineStr">
@@ -49349,6 +50143,9 @@
       </c>
       <c r="AU265" t="n">
         <v>0.6</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>6.683144185002803</v>
       </c>
     </row>
     <row r="266">
@@ -49430,7 +50227,7 @@
       </c>
       <c r="S266" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T266" t="inlineStr">
@@ -49534,6 +50331,9 @@
       </c>
       <c r="AU266" t="n">
         <v>0.4</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>8.575950904856498</v>
       </c>
     </row>
     <row r="267">
@@ -49615,7 +50415,7 @@
       </c>
       <c r="S267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Austria </t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="T267" t="inlineStr">
@@ -49719,6 +50519,9 @@
       </c>
       <c r="AU267" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>4.795329105514583</v>
       </c>
     </row>
     <row r="268">
@@ -49800,7 +50603,7 @@
       </c>
       <c r="S268" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T268" t="inlineStr">
@@ -49904,6 +50707,9 @@
       </c>
       <c r="AU268" t="n">
         <v>0</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>5.937508573074396</v>
       </c>
     </row>
     <row r="269">
@@ -49985,7 +50791,7 @@
       </c>
       <c r="S269" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T269" t="inlineStr">
@@ -50089,6 +50895,9 @@
       </c>
       <c r="AU269" t="n">
         <v>0</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>8.575950904856498</v>
       </c>
     </row>
     <row r="270">
@@ -50170,7 +50979,7 @@
       </c>
       <c r="S270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T270" t="inlineStr">
@@ -50274,6 +51083,9 @@
       </c>
       <c r="AU270" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>5.937508573074396</v>
       </c>
     </row>
     <row r="271">
@@ -50355,7 +51167,7 @@
       </c>
       <c r="S271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgium </t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="T271" t="inlineStr">
@@ -50475,6 +51287,9 @@
       </c>
       <c r="AU271" t="n">
         <v>0</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>6.202554015860812</v>
       </c>
     </row>
     <row r="272">
@@ -50556,7 +51371,7 @@
       </c>
       <c r="S272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T272" t="inlineStr">
@@ -50658,6 +51473,9 @@
       </c>
       <c r="AU272" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>3.669999861567348</v>
       </c>
     </row>
     <row r="273">
@@ -50739,7 +51557,7 @@
       </c>
       <c r="S273" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T273" t="inlineStr">
@@ -50843,6 +51661,9 @@
       </c>
       <c r="AU273" t="n">
         <v>0</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>6.276830732305257</v>
       </c>
     </row>
     <row r="274">
@@ -50924,7 +51745,7 @@
       </c>
       <c r="S274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T274" t="inlineStr">
@@ -51028,6 +51849,9 @@
       </c>
       <c r="AU274" t="n">
         <v>0</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>6.683144185002803</v>
       </c>
     </row>
     <row r="275">
@@ -51109,7 +51933,7 @@
       </c>
       <c r="S275" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T275" t="inlineStr">
@@ -51214,6 +52038,9 @@
       </c>
       <c r="AU275" t="n">
         <v>0</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>6.276830732305257</v>
       </c>
     </row>
     <row r="276">
@@ -51295,7 +52122,7 @@
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T276" t="inlineStr">
@@ -51397,6 +52224,9 @@
       </c>
       <c r="AU276" t="n">
         <v>0</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>5.391888041414731</v>
       </c>
     </row>
     <row r="277">
@@ -51478,7 +52308,7 @@
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T277" t="inlineStr">
@@ -51582,6 +52412,9 @@
       </c>
       <c r="AU277" t="n">
         <v>0</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>8.931062066007797</v>
       </c>
     </row>
     <row r="278">
@@ -51663,7 +52496,7 @@
       </c>
       <c r="S278" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T278" t="inlineStr">
@@ -51766,6 +52599,9 @@
       </c>
       <c r="AU278" t="n">
         <v>0.4</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>8.575950904856498</v>
       </c>
     </row>
     <row r="279">
@@ -51847,7 +52683,7 @@
       </c>
       <c r="S279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T279" t="inlineStr">
@@ -51951,6 +52787,9 @@
       </c>
       <c r="AU279" t="n">
         <v>0</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>5.937508573074396</v>
       </c>
     </row>
     <row r="280">
@@ -52032,7 +52871,7 @@
       </c>
       <c r="S280" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T280" t="inlineStr">
@@ -52137,6 +52976,9 @@
       </c>
       <c r="AU280" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>3.669999861567348</v>
       </c>
     </row>
     <row r="281">
@@ -52218,7 +53060,7 @@
       </c>
       <c r="S281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T281" t="inlineStr">
@@ -52322,6 +53164,9 @@
       </c>
       <c r="AU281" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>6.276830732305257</v>
       </c>
     </row>
     <row r="282">
@@ -52403,7 +53248,7 @@
       </c>
       <c r="S282" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T282" t="inlineStr">
@@ -52507,6 +53352,9 @@
       </c>
       <c r="AU282" t="n">
         <v>0</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>5.391888041414731</v>
       </c>
     </row>
     <row r="283">
@@ -52588,7 +53436,7 @@
       </c>
       <c r="S283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T283" t="inlineStr">
@@ -52690,6 +53538,9 @@
       </c>
       <c r="AU283" t="n">
         <v>0</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>3.669999861567348</v>
       </c>
     </row>
     <row r="284">
@@ -52771,7 +53622,7 @@
       </c>
       <c r="S284" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T284" t="inlineStr">
@@ -52875,6 +53726,9 @@
       </c>
       <c r="AU284" t="n">
         <v>1</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>8.575950904856498</v>
       </c>
     </row>
     <row r="285">
@@ -52956,7 +53810,7 @@
       </c>
       <c r="S285" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T285" t="inlineStr">
@@ -53060,6 +53914,9 @@
       </c>
       <c r="AU285" t="n">
         <v>0</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>8.931062066007797</v>
       </c>
     </row>
     <row r="286">
@@ -53141,7 +53998,7 @@
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T286" t="inlineStr">
@@ -53243,6 +54100,9 @@
       </c>
       <c r="AU286" t="n">
         <v>0</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>5.391888041414731</v>
       </c>
     </row>
     <row r="287">
@@ -53324,7 +54184,7 @@
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T287" t="inlineStr">
@@ -53426,6 +54286,9 @@
       </c>
       <c r="AU287" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>6.276830732305257</v>
       </c>
     </row>
     <row r="288">
@@ -53507,7 +54370,7 @@
       </c>
       <c r="S288" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T288" t="inlineStr">
@@ -53609,6 +54472,9 @@
       </c>
       <c r="AU288" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>6.276830732305257</v>
       </c>
     </row>
     <row r="289">
@@ -53690,7 +54556,7 @@
       </c>
       <c r="S289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T289" t="inlineStr">
@@ -53810,6 +54676,9 @@
       </c>
       <c r="AU289" t="n">
         <v>0</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>5.391888041414731</v>
       </c>
     </row>
     <row r="290">
@@ -53891,7 +54760,7 @@
       </c>
       <c r="S290" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T290" t="inlineStr">
@@ -53993,6 +54862,9 @@
       </c>
       <c r="AU290" t="n">
         <v>1</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>8.575950904856498</v>
       </c>
     </row>
     <row r="291">
@@ -54074,7 +54946,7 @@
       </c>
       <c r="S291" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T291" t="inlineStr">
@@ -54178,6 +55050,9 @@
       </c>
       <c r="AU291" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>1.459288507572694</v>
       </c>
     </row>
     <row r="292">
@@ -54259,7 +55134,7 @@
       </c>
       <c r="S292" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T292" t="inlineStr">
@@ -54363,6 +55238,9 @@
       </c>
       <c r="AU292" t="n">
         <v>1</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>4.839085147144033</v>
       </c>
     </row>
     <row r="293">
@@ -54444,7 +55322,7 @@
       </c>
       <c r="S293" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T293" t="inlineStr">
@@ -54546,6 +55424,9 @@
       </c>
       <c r="AU293" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>4.839085147144033</v>
       </c>
     </row>
     <row r="294">
@@ -54627,7 +55508,7 @@
       </c>
       <c r="S294" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ireland </t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="T294" t="inlineStr">
@@ -54731,6 +55612,9 @@
       </c>
       <c r="AU294" t="n">
         <v>0.25</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>8.619503551914917</v>
       </c>
     </row>
     <row r="295">
@@ -54812,7 +55696,7 @@
       </c>
       <c r="S295" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spain </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T295" t="inlineStr">
@@ -54916,6 +55800,9 @@
       </c>
       <c r="AU295" t="n">
         <v>1</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>6.179312225729632</v>
       </c>
     </row>
     <row r="296">
@@ -54997,7 +55884,7 @@
       </c>
       <c r="S296" t="inlineStr">
         <is>
-          <t xml:space="preserve">Norway </t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="T296" t="inlineStr">
@@ -55101,6 +55988,9 @@
       </c>
       <c r="AU296" t="n">
         <v>0</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>3.005635160762978</v>
       </c>
     </row>
     <row r="297">
@@ -55182,7 +56072,7 @@
       </c>
       <c r="S297" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T297" t="inlineStr">
@@ -55286,6 +56176,9 @@
       </c>
       <c r="AU297" t="n">
         <v>1</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>4.839085147144033</v>
       </c>
     </row>
     <row r="298">
@@ -55367,7 +56260,7 @@
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T298" t="inlineStr">
@@ -55472,6 +56365,9 @@
       </c>
       <c r="AU298" t="n">
         <v>0</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>2.570840474439692</v>
       </c>
     </row>
     <row r="299">
@@ -55553,7 +56449,7 @@
       </c>
       <c r="S299" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T299" t="inlineStr">
@@ -55658,6 +56554,9 @@
       </c>
       <c r="AU299" t="n">
         <v>1</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>1.459288507572694</v>
       </c>
     </row>
     <row r="300">
@@ -55739,7 +56638,7 @@
       </c>
       <c r="S300" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T300" t="inlineStr">
@@ -55843,6 +56742,9 @@
       </c>
       <c r="AU300" t="n">
         <v>0</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>1.459288507572694</v>
       </c>
     </row>
     <row r="301">
@@ -55924,7 +56826,7 @@
       </c>
       <c r="S301" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T301" t="inlineStr">
@@ -56027,6 +56929,9 @@
       </c>
       <c r="AU301" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>2.570840474439692</v>
       </c>
     </row>
     <row r="302">
@@ -56108,7 +57013,7 @@
       </c>
       <c r="S302" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T302" t="inlineStr">
@@ -56212,6 +57117,9 @@
       </c>
       <c r="AU302" t="n">
         <v>0</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>4.839085147144033</v>
       </c>
     </row>
     <row r="303">
@@ -56293,7 +57201,7 @@
       </c>
       <c r="S303" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ireland </t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="T303" t="inlineStr">
@@ -56397,6 +57305,9 @@
       </c>
       <c r="AU303" t="n">
         <v>0.4285714285714285</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>8.619503551914917</v>
       </c>
     </row>
     <row r="304">
@@ -56478,7 +57389,7 @@
       </c>
       <c r="S304" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T304" t="inlineStr">
@@ -56580,6 +57491,9 @@
       </c>
       <c r="AU304" t="n">
         <v>1</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>2.568328178340693</v>
       </c>
     </row>
     <row r="305">
@@ -56661,7 +57575,7 @@
       </c>
       <c r="S305" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switzerland </t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="T305" t="inlineStr">
@@ -56763,6 +57677,9 @@
       </c>
       <c r="AU305" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>2.568328178340693</v>
       </c>
     </row>
     <row r="306">
@@ -56844,7 +57761,7 @@
       </c>
       <c r="S306" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgium </t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="T306" t="inlineStr">
@@ -56948,6 +57865,9 @@
       </c>
       <c r="AU306" t="n">
         <v>1</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>4.233431833691697</v>
       </c>
     </row>
     <row r="307">
@@ -57029,7 +57949,7 @@
       </c>
       <c r="S307" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T307" t="inlineStr">
@@ -57131,6 +58051,9 @@
       </c>
       <c r="AU307" t="n">
         <v>0</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>5.007234590450366</v>
       </c>
     </row>
     <row r="308">
@@ -57212,7 +58135,7 @@
       </c>
       <c r="S308" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T308" t="inlineStr">
@@ -57316,6 +58239,9 @@
       </c>
       <c r="AU308" t="n">
         <v>0</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>1.459288507572694</v>
       </c>
     </row>
     <row r="309">
@@ -57397,7 +58323,7 @@
       </c>
       <c r="S309" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T309" t="inlineStr">
@@ -57499,6 +58425,9 @@
       </c>
       <c r="AU309" t="n">
         <v>0</v>
+      </c>
+      <c r="AV309" t="n">
+        <v>1.459288507572694</v>
       </c>
     </row>
     <row r="310">
@@ -57580,7 +58509,7 @@
       </c>
       <c r="S310" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T310" t="inlineStr">
@@ -57684,6 +58613,9 @@
       </c>
       <c r="AU310" t="n">
         <v>0</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>1.369731055365847</v>
       </c>
     </row>
     <row r="311">
@@ -57765,7 +58697,7 @@
       </c>
       <c r="S311" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denmark </t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="T311" t="inlineStr">
@@ -57869,6 +58801,9 @@
       </c>
       <c r="AU311" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>1.540173107095669</v>
       </c>
     </row>
     <row r="312">
@@ -57950,7 +58885,7 @@
       </c>
       <c r="S312" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T312" t="inlineStr">
@@ -58054,6 +58989,9 @@
       </c>
       <c r="AU312" t="n">
         <v>0</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>4.839085147144033</v>
       </c>
     </row>
     <row r="313">
@@ -58135,7 +59073,7 @@
       </c>
       <c r="S313" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T313" t="inlineStr">
@@ -58237,6 +59175,9 @@
       </c>
       <c r="AU313" t="n">
         <v>1</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>4.839085147144033</v>
       </c>
     </row>
     <row r="314">
@@ -58318,7 +59259,7 @@
       </c>
       <c r="S314" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany </t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="T314" t="inlineStr">
@@ -58423,6 +59364,9 @@
       </c>
       <c r="AU314" t="n">
         <v>1</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>1.369731055365847</v>
       </c>
     </row>
     <row r="315">
@@ -58504,7 +59448,7 @@
       </c>
       <c r="S315" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T315" t="inlineStr">
@@ -58608,6 +59552,9 @@
       </c>
       <c r="AU315" t="n">
         <v>1</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>2.570840474439692</v>
       </c>
     </row>
     <row r="316">
@@ -58689,7 +59636,7 @@
       </c>
       <c r="S316" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T316" t="inlineStr">
@@ -58791,6 +59738,9 @@
       </c>
       <c r="AU316" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="AV316" t="n">
+        <v>5.007234590450366</v>
       </c>
     </row>
     <row r="317">
@@ -58872,7 +59822,7 @@
       </c>
       <c r="S317" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ireland </t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="T317" t="inlineStr">
@@ -58976,6 +59926,9 @@
       </c>
       <c r="AU317" t="n">
         <v>0.4</v>
+      </c>
+      <c r="AV317" t="n">
+        <v>8.619503551914917</v>
       </c>
     </row>
     <row r="318">
@@ -59057,7 +60010,7 @@
       </c>
       <c r="S318" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T318" t="inlineStr">
@@ -59161,6 +60114,9 @@
       </c>
       <c r="AU318" t="n">
         <v>0</v>
+      </c>
+      <c r="AV318" t="n">
+        <v>0.3399661580034632</v>
       </c>
     </row>
     <row r="319">
@@ -59242,7 +60198,7 @@
       </c>
       <c r="S319" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T319" t="inlineStr">
@@ -59363,6 +60319,9 @@
       </c>
       <c r="AU319" t="n">
         <v>0</v>
+      </c>
+      <c r="AV319" t="n">
+        <v>-0.3106701847258933</v>
       </c>
     </row>
     <row r="320">
@@ -59444,7 +60403,7 @@
       </c>
       <c r="S320" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom </t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="T320" t="inlineStr">
@@ -59548,6 +60507,9 @@
       </c>
       <c r="AU320" t="n">
         <v>0</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>0.3399661580034632</v>
       </c>
     </row>
     <row r="321">
@@ -59629,7 +60591,7 @@
       </c>
       <c r="S321" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T321" t="inlineStr">
@@ -59733,6 +60695,9 @@
       </c>
       <c r="AU321" t="n">
         <v>0.2</v>
+      </c>
+      <c r="AV321" t="n">
+        <v>0.9364875026714827</v>
       </c>
     </row>
     <row r="322">
@@ -59814,7 +60779,7 @@
       </c>
       <c r="S322" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T322" t="inlineStr">
@@ -59917,6 +60882,9 @@
       </c>
       <c r="AU322" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AV322" t="n">
+        <v>0.9364875026714827</v>
       </c>
     </row>
     <row r="323">
@@ -59998,7 +60966,7 @@
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T323" t="inlineStr">
@@ -60102,6 +61070,9 @@
       </c>
       <c r="AU323" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AV323" t="n">
+        <v>0.07456072164949035</v>
       </c>
     </row>
     <row r="324">
@@ -60183,7 +61154,7 @@
       </c>
       <c r="S324" t="inlineStr">
         <is>
-          <t xml:space="preserve">Netherlands </t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="T324" t="inlineStr">
@@ -60285,6 +61256,9 @@
       </c>
       <c r="AU324" t="n">
         <v>0.4</v>
+      </c>
+      <c r="AV324" t="n">
+        <v>0.07456072164949035</v>
       </c>
     </row>
     <row r="325">
@@ -60366,7 +61340,7 @@
       </c>
       <c r="S325" t="inlineStr">
         <is>
-          <t xml:space="preserve">France </t>
+          <t>France</t>
         </is>
       </c>
       <c r="T325" t="inlineStr">
@@ -60468,6 +61442,9 @@
       </c>
       <c r="AU325" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="AV325" t="n">
+        <v>0.9364875026714827</v>
       </c>
     </row>
     <row r="326">
@@ -60549,7 +61526,7 @@
       </c>
       <c r="S326" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgium </t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="T326" t="inlineStr">
@@ -60653,6 +61630,9 @@
       </c>
       <c r="AU326" t="n">
         <v>0</v>
+      </c>
+      <c r="AV326" t="n">
+        <v>1.251700632035949</v>
       </c>
     </row>
     <row r="327">
@@ -60734,7 +61714,7 @@
       </c>
       <c r="S327" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sweden </t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="T327" t="inlineStr">
@@ -60838,6 +61818,9 @@
       </c>
       <c r="AU327" t="n">
         <v>0</v>
+      </c>
+      <c r="AV327" t="n">
+        <v>-0.3106701847258933</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/CAR_v5_extra_vars.xlsx
+++ b/data/processed/CAR_v5_extra_vars.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV327"/>
+  <dimension ref="A1:AW327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,6 +678,11 @@
           <t>gdp_lag1_tgt</t>
         </is>
       </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>debt_lag1_tgt</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -864,6 +869,9 @@
       <c r="AV2" t="n">
         <v>1.162368267425379</v>
       </c>
+      <c r="AW2" t="n">
+        <v>64.333068764609</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1052,6 +1060,9 @@
       <c r="AV3" t="n">
         <v>1.162368267425379</v>
       </c>
+      <c r="AW3" t="n">
+        <v>64.333068764609</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1242,6 +1253,9 @@
       <c r="AV4" t="n">
         <v>1.474021672511896</v>
       </c>
+      <c r="AW4" t="n">
+        <v>104.74176255873</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1432,6 +1446,9 @@
       <c r="AV5" t="n">
         <v>2.701709209670284</v>
       </c>
+      <c r="AW5" t="n">
+        <v>57.805060845425</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1618,6 +1635,9 @@
       <c r="AV6" t="n">
         <v>2.701709209670284</v>
       </c>
+      <c r="AW6" t="n">
+        <v>57.805060845425</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1806,6 +1826,9 @@
       <c r="AV7" t="n">
         <v>1.162368267425379</v>
       </c>
+      <c r="AW7" t="n">
+        <v>64.333068764609</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1992,6 +2015,9 @@
       <c r="AV8" t="n">
         <v>1.162368267425379</v>
       </c>
+      <c r="AW8" t="n">
+        <v>64.333068764609</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2178,6 +2204,9 @@
       <c r="AV9" t="n">
         <v>2.45790441131264</v>
       </c>
+      <c r="AW9" t="n">
+        <v>39.801623574722</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2366,6 +2395,9 @@
       <c r="AV10" t="n">
         <v>2.793176854976991</v>
       </c>
+      <c r="AW10" t="n">
+        <v>48.833793794013</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2552,6 +2584,9 @@
       <c r="AV11" t="n">
         <v>0.8856972362646189</v>
       </c>
+      <c r="AW11" t="n">
+        <v>66.460091756926</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2738,6 +2773,9 @@
       <c r="AV12" t="n">
         <v>2.732660761303634</v>
       </c>
+      <c r="AW12" t="n">
+        <v>41.000351027954</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2924,6 +2962,9 @@
       <c r="AV13" t="n">
         <v>2.732660761303634</v>
       </c>
+      <c r="AW13" t="n">
+        <v>41.000351027954</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3112,6 +3153,9 @@
       <c r="AV14" t="n">
         <v>1.888565802171115</v>
       </c>
+      <c r="AW14" t="n">
+        <v>68.03876765737699</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3298,6 +3342,9 @@
       <c r="AV15" t="n">
         <v>2.732660761303634</v>
       </c>
+      <c r="AW15" t="n">
+        <v>41.000351027954</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3484,6 +3531,9 @@
       <c r="AV16" t="n">
         <v>0.8856972362646189</v>
       </c>
+      <c r="AW16" t="n">
+        <v>66.460091756926</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3670,6 +3720,9 @@
       <c r="AV17" t="n">
         <v>3.551225515372408</v>
       </c>
+      <c r="AW17" t="n">
+        <v>42.39518996425</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3856,6 +3909,9 @@
       <c r="AV18" t="n">
         <v>2.321737964326417</v>
       </c>
+      <c r="AW18" t="n">
+        <v>95.14187016388399</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4042,6 +4098,9 @@
       <c r="AV19" t="n">
         <v>2.732660761303634</v>
       </c>
+      <c r="AW19" t="n">
+        <v>41.000351027954</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4228,6 +4287,9 @@
       <c r="AV20" t="n">
         <v>3.855736152214291</v>
       </c>
+      <c r="AW20" t="n">
+        <v>65.75402484564199</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4414,6 +4476,9 @@
       <c r="AV21" t="n">
         <v>2.380694024870664</v>
       </c>
+      <c r="AW21" t="n">
+        <v>42.058357189149</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4602,6 +4667,9 @@
       <c r="AV22" t="n">
         <v>2.380694024870664</v>
       </c>
+      <c r="AW22" t="n">
+        <v>42.058357189149</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4790,6 +4858,9 @@
       <c r="AV23" t="n">
         <v>4.073628449942746</v>
       </c>
+      <c r="AW23" t="n">
+        <v>48.46713125566</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4976,6 +5047,9 @@
       <c r="AV24" t="n">
         <v>2.714064517932499</v>
       </c>
+      <c r="AW24" t="n">
+        <v>65.324748897682</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5162,6 +5236,9 @@
       <c r="AV25" t="n">
         <v>3.855736152214291</v>
       </c>
+      <c r="AW25" t="n">
+        <v>65.75402484564199</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5350,6 +5427,9 @@
       <c r="AV26" t="n">
         <v>4.073628449942746</v>
       </c>
+      <c r="AW26" t="n">
+        <v>48.46713125566</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5538,6 +5618,9 @@
       <c r="AV27" t="n">
         <v>4.073628449942746</v>
       </c>
+      <c r="AW27" t="n">
+        <v>48.46713125566</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5726,6 +5809,9 @@
       <c r="AV28" t="n">
         <v>4.019573228041025</v>
       </c>
+      <c r="AW28" t="n">
+        <v>38.005102365484</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5912,6 +5998,9 @@
       <c r="AV29" t="n">
         <v>3.855736152214291</v>
       </c>
+      <c r="AW29" t="n">
+        <v>65.75402484564199</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6096,6 +6185,9 @@
       <c r="AV30" t="n">
         <v>1.799479905207875</v>
       </c>
+      <c r="AW30" t="n">
+        <v>106.25306955972</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6282,6 +6374,9 @@
       <c r="AV31" t="n">
         <v>4.019573228041025</v>
       </c>
+      <c r="AW31" t="n">
+        <v>38.005102365484</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6470,6 +6565,9 @@
       <c r="AV32" t="n">
         <v>2.624880019712506</v>
       </c>
+      <c r="AW32" t="n">
+        <v>43.173897815474</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6658,6 +6756,9 @@
       <c r="AV33" t="n">
         <v>2.624880019712506</v>
       </c>
+      <c r="AW33" t="n">
+        <v>43.173897815474</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6846,6 +6947,9 @@
       <c r="AV34" t="n">
         <v>2.624880019712506</v>
       </c>
+      <c r="AW34" t="n">
+        <v>43.173897815474</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7032,6 +7136,9 @@
       <c r="AV35" t="n">
         <v>2.530481861964986</v>
       </c>
+      <c r="AW35" t="n">
+        <v>65.361396134668</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7218,6 +7325,9 @@
       <c r="AV36" t="n">
         <v>2.914039986071742</v>
       </c>
+      <c r="AW36" t="n">
+        <v>49.515078125596</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7406,6 +7516,9 @@
       <c r="AV37" t="n">
         <v>2.624880019712506</v>
       </c>
+      <c r="AW37" t="n">
+        <v>43.173897815474</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7594,6 +7707,9 @@
       <c r="AV38" t="n">
         <v>2.890107189624786</v>
       </c>
+      <c r="AW38" t="n">
+        <v>63.08144063063</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7780,6 +7896,9 @@
       <c r="AV39" t="n">
         <v>3.885306508388879</v>
       </c>
+      <c r="AW39" t="n">
+        <v>42.741118381438</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7968,6 +8087,9 @@
       <c r="AV40" t="n">
         <v>3.916375817781798</v>
       </c>
+      <c r="AW40" t="n">
+        <v>44.751849868379</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8154,6 +8276,9 @@
       <c r="AV41" t="n">
         <v>3.224911317116664</v>
       </c>
+      <c r="AW41" t="n">
+        <v>39.072554361199</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8342,6 +8467,9 @@
       <c r="AV42" t="n">
         <v>2.890107189624786</v>
       </c>
+      <c r="AW42" t="n">
+        <v>63.08144063063</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8530,6 +8658,9 @@
       <c r="AV43" t="n">
         <v>3.916375817781798</v>
       </c>
+      <c r="AW43" t="n">
+        <v>44.751849868379</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8716,6 +8847,9 @@
       <c r="AV44" t="n">
         <v>3.676924838925231</v>
       </c>
+      <c r="AW44" t="n">
+        <v>87.32462407492</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8902,6 +9036,9 @@
       <c r="AV45" t="n">
         <v>0.4469049477175275</v>
       </c>
+      <c r="AW45" t="n">
+        <v>93.16004344093101</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9088,6 +9225,9 @@
       <c r="AV46" t="n">
         <v>0.9104031961453529</v>
       </c>
+      <c r="AW46" t="n">
+        <v>64.586203700843</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9277,6 +9417,9 @@
       <c r="AV47" t="n">
         <v>-0.2487972981322457</v>
       </c>
+      <c r="AW47" t="n">
+        <v>50.827371987952</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9463,6 +9606,9 @@
       <c r="AV48" t="n">
         <v>-1.02313847687941</v>
       </c>
+      <c r="AW48" t="n">
+        <v>105.78767746274</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9649,6 +9795,9 @@
       <c r="AV49" t="n">
         <v>-1.02313847687941</v>
       </c>
+      <c r="AW49" t="n">
+        <v>105.78767746274</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9835,6 +9984,9 @@
       <c r="AV50" t="n">
         <v>0.4469049477175275</v>
       </c>
+      <c r="AW50" t="n">
+        <v>93.16004344093101</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10039,6 +10191,9 @@
       <c r="AV51" t="n">
         <v>-0.9231230829503119</v>
       </c>
+      <c r="AW51" t="n">
+        <v>37.735727790621</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10227,6 +10382,9 @@
       <c r="AV52" t="n">
         <v>-1.02313847687941</v>
       </c>
+      <c r="AW52" t="n">
+        <v>105.78767746274</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10415,6 +10573,9 @@
       <c r="AV53" t="n">
         <v>0.7844312192730314</v>
       </c>
+      <c r="AW53" t="n">
+        <v>32.562688864522</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10603,6 +10764,9 @@
       <c r="AV54" t="n">
         <v>-0.2487972981322457</v>
       </c>
+      <c r="AW54" t="n">
+        <v>50.827371987952</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10789,6 +10953,9 @@
       <c r="AV55" t="n">
         <v>0.4469049477175275</v>
       </c>
+      <c r="AW55" t="n">
+        <v>93.16004344093101</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10977,6 +11144,9 @@
       <c r="AV56" t="n">
         <v>0.3801714255223629</v>
       </c>
+      <c r="AW56" t="n">
+        <v>69.735692990293</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11165,6 +11335,9 @@
       <c r="AV57" t="n">
         <v>-0.9231230829503119</v>
       </c>
+      <c r="AW57" t="n">
+        <v>37.735727790621</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11351,6 +11524,9 @@
       <c r="AV58" t="n">
         <v>0.3801714255223629</v>
       </c>
+      <c r="AW58" t="n">
+        <v>69.735692990293</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11539,6 +11715,9 @@
       <c r="AV59" t="n">
         <v>-1.02313847687941</v>
       </c>
+      <c r="AW59" t="n">
+        <v>105.78767746274</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11725,6 +11904,9 @@
       <c r="AV60" t="n">
         <v>-2.297374630715453</v>
       </c>
+      <c r="AW60" t="n">
+        <v>43.087987059163</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11913,6 +12095,9 @@
       <c r="AV61" t="n">
         <v>-5.545164537717056</v>
       </c>
+      <c r="AW61" t="n">
+        <v>71.71568057654299</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12101,6 +12286,9 @@
       <c r="AV62" t="n">
         <v>-2.824551502889619</v>
       </c>
+      <c r="AW62" t="n">
+        <v>84.03127004341</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12289,6 +12477,9 @@
       <c r="AV63" t="n">
         <v>-5.305154032510998</v>
       </c>
+      <c r="AW63" t="n">
+        <v>116.12127583182</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12477,6 +12668,9 @@
       <c r="AV64" t="n">
         <v>-4.620553719568605</v>
       </c>
+      <c r="AW64" t="n">
+        <v>64.91501173164799</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12665,6 +12859,9 @@
       <c r="AV65" t="n">
         <v>-3.665290445065949</v>
       </c>
+      <c r="AW65" t="n">
+        <v>56.289780742748</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12853,6 +13050,9 @@
       <c r="AV66" t="n">
         <v>-4.255573742711448</v>
       </c>
+      <c r="AW66" t="n">
+        <v>40.947598349172</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13041,6 +13241,9 @@
       <c r="AV67" t="n">
         <v>-2.297374630715453</v>
       </c>
+      <c r="AW67" t="n">
+        <v>43.087987059163</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13229,6 +13432,9 @@
       <c r="AV68" t="n">
         <v>-5.545164537717056</v>
       </c>
+      <c r="AW68" t="n">
+        <v>71.71568057654299</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13415,6 +13621,9 @@
       <c r="AV69" t="n">
         <v>-5.545164537717056</v>
       </c>
+      <c r="AW69" t="n">
+        <v>71.71568057654299</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13601,6 +13810,9 @@
       <c r="AV70" t="n">
         <v>-4.255573742711448</v>
       </c>
+      <c r="AW70" t="n">
+        <v>40.947598349172</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13789,6 +14001,9 @@
       <c r="AV71" t="n">
         <v>-4.620553719568605</v>
       </c>
+      <c r="AW71" t="n">
+        <v>64.91501173164799</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13975,6 +14190,9 @@
       <c r="AV72" t="n">
         <v>4.146767545324366</v>
       </c>
+      <c r="AW72" t="n">
+        <v>80.37552655520101</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14163,6 +14381,9 @@
       <c r="AV73" t="n">
         <v>2.233315126310799</v>
       </c>
+      <c r="AW73" t="n">
+        <v>75.86022965982499</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14351,6 +14572,9 @@
       <c r="AV74" t="n">
         <v>2.233315126310799</v>
       </c>
+      <c r="AW74" t="n">
+        <v>75.86022965982499</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -14537,6 +14761,9 @@
       <c r="AV75" t="n">
         <v>4.146767545324366</v>
       </c>
+      <c r="AW75" t="n">
+        <v>80.37552655520101</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -14723,6 +14950,9 @@
       <c r="AV76" t="n">
         <v>4.146767545324366</v>
       </c>
+      <c r="AW76" t="n">
+        <v>80.37552655520101</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -14911,6 +15141,9 @@
       <c r="AV77" t="n">
         <v>5.750735843227247</v>
       </c>
+      <c r="AW77" t="n">
+        <v>38.301932321582</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -15099,6 +15332,9 @@
       <c r="AV78" t="n">
         <v>1.682972350562579</v>
       </c>
+      <c r="AW78" t="n">
+        <v>86.13499277379</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -15287,6 +15523,9 @@
       <c r="AV79" t="n">
         <v>2.000324726999807</v>
       </c>
+      <c r="AW79" t="n">
+        <v>86.31331100407</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -15473,6 +15712,9 @@
       <c r="AV80" t="n">
         <v>4.146767545324366</v>
       </c>
+      <c r="AW80" t="n">
+        <v>80.37552655520101</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -15661,6 +15903,9 @@
       <c r="AV81" t="n">
         <v>1.682972350562579</v>
       </c>
+      <c r="AW81" t="n">
+        <v>86.13499277379</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -15849,6 +16094,9 @@
       <c r="AV82" t="n">
         <v>4.146767545324366</v>
       </c>
+      <c r="AW82" t="n">
+        <v>80.37552655520101</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -16035,6 +16283,9 @@
       <c r="AV83" t="n">
         <v>4.146767545324366</v>
       </c>
+      <c r="AW83" t="n">
+        <v>80.37552655520101</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -16221,6 +16472,9 @@
       <c r="AV84" t="n">
         <v>1.773345206572458</v>
       </c>
+      <c r="AW84" t="n">
+        <v>61.166928094413</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -16409,6 +16663,9 @@
       <c r="AV85" t="n">
         <v>1.138362347448933</v>
       </c>
+      <c r="AW85" t="n">
+        <v>81.42506571072801</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -16597,6 +16854,9 @@
       <c r="AV86" t="n">
         <v>1.138362347448933</v>
       </c>
+      <c r="AW86" t="n">
+        <v>81.42506571072801</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -16785,6 +17045,9 @@
       <c r="AV87" t="n">
         <v>3.163910481452035</v>
       </c>
+      <c r="AW87" t="n">
+        <v>37.380423149749</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -16971,6 +17234,9 @@
       <c r="AV88" t="n">
         <v>3.757968865863475</v>
       </c>
+      <c r="AW88" t="n">
+        <v>77.84923266164699</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -17159,6 +17425,9 @@
       <c r="AV89" t="n">
         <v>3.757968865863475</v>
       </c>
+      <c r="AW89" t="n">
+        <v>77.84923266164699</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -17347,6 +17616,9 @@
       <c r="AV90" t="n">
         <v>3.163910481452035</v>
       </c>
+      <c r="AW90" t="n">
+        <v>37.380423149749</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -17535,6 +17807,9 @@
       <c r="AV91" t="n">
         <v>3.163910481452035</v>
       </c>
+      <c r="AW91" t="n">
+        <v>37.380423149749</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -17723,6 +17998,9 @@
       <c r="AV92" t="n">
         <v>1.138362347448933</v>
       </c>
+      <c r="AW92" t="n">
+        <v>81.42506571072801</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -17909,6 +18187,9 @@
       <c r="AV93" t="n">
         <v>2.437576568770794</v>
       </c>
+      <c r="AW93" t="n">
+        <v>88.91020026049701</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -18095,6 +18376,9 @@
       <c r="AV94" t="n">
         <v>1.138362347448933</v>
       </c>
+      <c r="AW94" t="n">
+        <v>81.42506571072801</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -18283,6 +18567,9 @@
       <c r="AV95" t="n">
         <v>0.4742913058555445</v>
       </c>
+      <c r="AW95" t="n">
+        <v>79.157292938815</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -18469,6 +18756,9 @@
       <c r="AV96" t="n">
         <v>1.50899837441014</v>
       </c>
+      <c r="AW96" t="n">
+        <v>84.48260066580499</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -18655,6 +18945,9 @@
       <c r="AV97" t="n">
         <v>-2.865113672910695</v>
       </c>
+      <c r="AW97" t="n">
+        <v>89.560379607786</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -18843,6 +19136,9 @@
       <c r="AV98" t="n">
         <v>-3.125238795438165</v>
       </c>
+      <c r="AW98" t="n">
+        <v>125.87049589393</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -19031,6 +19327,9 @@
       <c r="AV99" t="n">
         <v>1.50899837441014</v>
       </c>
+      <c r="AW99" t="n">
+        <v>84.48260066580499</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -19217,6 +19516,9 @@
       <c r="AV100" t="n">
         <v>0.4742913058555445</v>
       </c>
+      <c r="AW100" t="n">
+        <v>79.157292938815</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -19403,6 +19705,9 @@
       <c r="AV101" t="n">
         <v>1.179253833251082</v>
       </c>
+      <c r="AW101" t="n">
+        <v>42.569499885418</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -19589,6 +19894,9 @@
       <c r="AV102" t="n">
         <v>-0.4144657210708829</v>
       </c>
+      <c r="AW102" t="n">
+        <v>37.686333135724</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -19777,6 +20085,9 @@
       <c r="AV103" t="n">
         <v>-0.3989599645054511</v>
       </c>
+      <c r="AW103" t="n">
+        <v>118.72991735163</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -19965,6 +20276,9 @@
       <c r="AV104" t="n">
         <v>1.50899837441014</v>
       </c>
+      <c r="AW104" t="n">
+        <v>84.48260066580499</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -20151,6 +20465,9 @@
       <c r="AV105" t="n">
         <v>0.7817564459134019</v>
       </c>
+      <c r="AW105" t="n">
+        <v>94.686825462051</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -20337,6 +20654,9 @@
       <c r="AV106" t="n">
         <v>1.799921493626627</v>
       </c>
+      <c r="AW106" t="n">
+        <v>85.316058901031</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -20523,6 +20843,9 @@
       <c r="AV107" t="n">
         <v>1.792144057074836</v>
       </c>
+      <c r="AW107" t="n">
+        <v>41.945930095193</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -20709,6 +21032,9 @@
       <c r="AV108" t="n">
         <v>-1.818025061042832</v>
       </c>
+      <c r="AW108" t="n">
+        <v>131.81630273306</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -20895,6 +21221,9 @@
       <c r="AV109" t="n">
         <v>-1.427322191818803</v>
       </c>
+      <c r="AW109" t="n">
+        <v>100.00031287415</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -21099,6 +21428,9 @@
       <c r="AV110" t="n">
         <v>0.386224576109953</v>
       </c>
+      <c r="AW110" t="n">
+        <v>76.794662537318</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -21285,6 +21617,9 @@
       <c r="AV111" t="n">
         <v>1.392673470172952</v>
       </c>
+      <c r="AW111" t="n">
+        <v>43.911826885918</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -21473,6 +21808,9 @@
       <c r="AV112" t="n">
         <v>0.3054944785623803</v>
       </c>
+      <c r="AW112" t="n">
+        <v>105.48564447159</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -21661,6 +21999,9 @@
       <c r="AV113" t="n">
         <v>0.7817564459134019</v>
       </c>
+      <c r="AW113" t="n">
+        <v>94.686825462051</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -21849,6 +22190,9 @@
       <c r="AV114" t="n">
         <v>2.295763808728395</v>
       </c>
+      <c r="AW114" t="n">
+        <v>45.20099109843</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -22035,6 +22379,9 @@
       <c r="AV115" t="n">
         <v>2.349881275086261</v>
       </c>
+      <c r="AW115" t="n">
+        <v>42.06696758215</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -22221,6 +22568,9 @@
       <c r="AV116" t="n">
         <v>1.520485922798187</v>
       </c>
+      <c r="AW116" t="n">
+        <v>104.41761636038</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -22409,6 +22759,9 @@
       <c r="AV117" t="n">
         <v>1.612610074491229</v>
       </c>
+      <c r="AW117" t="n">
+        <v>67.16590999179201</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -22595,6 +22948,9 @@
       <c r="AV118" t="n">
         <v>3.194637312802101</v>
       </c>
+      <c r="AW118" t="n">
+        <v>87.094325197019</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -22781,6 +23137,9 @@
       <c r="AV119" t="n">
         <v>2.169498928790787</v>
       </c>
+      <c r="AW119" t="n">
+        <v>73.823031854132</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -22969,6 +23328,9 @@
       <c r="AV120" t="n">
         <v>3.194637312802101</v>
       </c>
+      <c r="AW120" t="n">
+        <v>87.094325197019</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -23155,6 +23517,9 @@
       <c r="AV121" t="n">
         <v>2.169498928790787</v>
       </c>
+      <c r="AW121" t="n">
+        <v>73.823031854132</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -23343,6 +23708,9 @@
       <c r="AV122" t="n">
         <v>9.336033728686232</v>
       </c>
+      <c r="AW122" t="n">
+        <v>101.27607447502</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -23529,6 +23897,9 @@
       <c r="AV123" t="n">
         <v>3.194637312802101</v>
       </c>
+      <c r="AW123" t="n">
+        <v>87.094325197019</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -23715,6 +24086,9 @@
       <c r="AV124" t="n">
         <v>1.277999793806444</v>
       </c>
+      <c r="AW124" t="n">
+        <v>44.290452475481</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -23903,6 +24277,9 @@
       <c r="AV125" t="n">
         <v>2.349881275086261</v>
       </c>
+      <c r="AW125" t="n">
+        <v>42.06696758215</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -24091,6 +24468,9 @@
       <c r="AV126" t="n">
         <v>3.194637312802101</v>
       </c>
+      <c r="AW126" t="n">
+        <v>87.094325197019</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -24280,6 +24660,9 @@
       <c r="AV127" t="n">
         <v>2.349881275086261</v>
       </c>
+      <c r="AW127" t="n">
+        <v>42.06696758215</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -24468,6 +24851,9 @@
       <c r="AV128" t="n">
         <v>2.295763808728395</v>
       </c>
+      <c r="AW128" t="n">
+        <v>45.20099109843</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -24654,6 +25040,9 @@
       <c r="AV129" t="n">
         <v>1.612610074491229</v>
       </c>
+      <c r="AW129" t="n">
+        <v>67.16590999179201</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -24842,6 +25231,9 @@
       <c r="AV130" t="n">
         <v>1.066754734889088</v>
       </c>
+      <c r="AW130" t="n">
+        <v>97.0737325512</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -25030,6 +25422,9 @@
       <c r="AV131" t="n">
         <v>2.222888449084365</v>
       </c>
+      <c r="AW131" t="n">
+        <v>87.86668691242301</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -25216,6 +25611,9 @@
       <c r="AV132" t="n">
         <v>4.410140675793414</v>
       </c>
+      <c r="AW132" t="n">
+        <v>44.035592881896</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -25402,6 +25800,9 @@
       <c r="AV133" t="n">
         <v>2.104414587125873</v>
       </c>
+      <c r="AW133" t="n">
+        <v>39.894178226249</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -25588,6 +25989,9 @@
       <c r="AV134" t="n">
         <v>4.060866697185688</v>
       </c>
+      <c r="AW134" t="n">
+        <v>102.44212445452</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -25776,6 +26180,9 @@
       <c r="AV135" t="n">
         <v>4.410140675793414</v>
       </c>
+      <c r="AW135" t="n">
+        <v>44.035592881896</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -25962,6 +26369,9 @@
       <c r="AV136" t="n">
         <v>2.120605224217172</v>
       </c>
+      <c r="AW136" t="n">
+        <v>63.799334930454</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -26150,6 +26560,9 @@
       <c r="AV137" t="n">
         <v>1.066754734889088</v>
       </c>
+      <c r="AW137" t="n">
+        <v>97.0737325512</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -26338,6 +26751,9 @@
       <c r="AV138" t="n">
         <v>2.222888449084365</v>
       </c>
+      <c r="AW138" t="n">
+        <v>87.86668691242301</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -26524,6 +26940,9 @@
       <c r="AV139" t="n">
         <v>4.060866697185688</v>
       </c>
+      <c r="AW139" t="n">
+        <v>102.44212445452</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -26710,6 +27129,9 @@
       <c r="AV140" t="n">
         <v>1.652719771746277</v>
       </c>
+      <c r="AW140" t="n">
+        <v>70.559882034579</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -26898,6 +27320,9 @@
       <c r="AV141" t="n">
         <v>4.060866697185688</v>
       </c>
+      <c r="AW141" t="n">
+        <v>102.44212445452</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -27086,6 +27511,9 @@
       <c r="AV142" t="n">
         <v>4.410140675793414</v>
       </c>
+      <c r="AW142" t="n">
+        <v>44.035592881896</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -27274,6 +27702,9 @@
       <c r="AV143" t="n">
         <v>1.47416438588013</v>
       </c>
+      <c r="AW143" t="n">
+        <v>105.23035646577</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -27462,6 +27893,9 @@
       <c r="AV144" t="n">
         <v>4.410140675793414</v>
       </c>
+      <c r="AW144" t="n">
+        <v>44.035592881896</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -27650,6 +28084,9 @@
       <c r="AV145" t="n">
         <v>2.222888449084365</v>
       </c>
+      <c r="AW145" t="n">
+        <v>87.86668691242301</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -27836,6 +28273,9 @@
       <c r="AV146" t="n">
         <v>2.222888449084365</v>
       </c>
+      <c r="AW146" t="n">
+        <v>87.86668691242301</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -28022,6 +28462,9 @@
       <c r="AV147" t="n">
         <v>2.004141093604872</v>
       </c>
+      <c r="AW147" t="n">
+        <v>131.5057445501</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -28210,6 +28653,9 @@
       <c r="AV148" t="n">
         <v>2.349740804325393</v>
       </c>
+      <c r="AW148" t="n">
+        <v>42.373485372264</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -28396,6 +28842,9 @@
       <c r="AV149" t="n">
         <v>2.349740804325393</v>
       </c>
+      <c r="AW149" t="n">
+        <v>42.373485372264</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -28582,6 +29031,9 @@
       <c r="AV150" t="n">
         <v>2.294710676842811</v>
       </c>
+      <c r="AW150" t="n">
+        <v>67.630651010134</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -28771,6 +29223,9 @@
       <c r="AV151" t="n">
         <v>3.073045474798548</v>
       </c>
+      <c r="AW151" t="n">
+        <v>37.304314351367</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -28959,6 +29414,9 @@
       <c r="AV152" t="n">
         <v>2.349740804325393</v>
       </c>
+      <c r="AW152" t="n">
+        <v>42.373485372264</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -29145,6 +29603,9 @@
       <c r="AV153" t="n">
         <v>1.236221107275099</v>
       </c>
+      <c r="AW153" t="n">
+        <v>134.19551269697</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -29331,6 +29792,9 @@
       <c r="AV154" t="n">
         <v>2.117219670961077</v>
       </c>
+      <c r="AW154" t="n">
+        <v>82.84042862575799</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -29517,6 +29981,9 @@
       <c r="AV155" t="n">
         <v>2.349740804325393</v>
       </c>
+      <c r="AW155" t="n">
+        <v>42.373485372264</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -29705,6 +30172,9 @@
       <c r="AV156" t="n">
         <v>0.860031082016107</v>
       </c>
+      <c r="AW156" t="n">
+        <v>98.024778336434</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -29891,6 +30361,9 @@
       <c r="AV157" t="n">
         <v>1.193502639951106</v>
       </c>
+      <c r="AW157" t="n">
+        <v>105.00714974947</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -30079,6 +30552,9 @@
       <c r="AV158" t="n">
         <v>1.921710077638309</v>
       </c>
+      <c r="AW158" t="n">
+        <v>87.82518973009699</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -30267,6 +30743,9 @@
       <c r="AV159" t="n">
         <v>2.294710676842811</v>
       </c>
+      <c r="AW159" t="n">
+        <v>67.630651010134</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -30453,6 +30932,9 @@
       <c r="AV160" t="n">
         <v>2.294710676842811</v>
       </c>
+      <c r="AW160" t="n">
+        <v>67.630651010134</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -30641,6 +31123,9 @@
       <c r="AV161" t="n">
         <v>2.915156028081739</v>
       </c>
+      <c r="AW161" t="n">
+        <v>101.96650275565</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -30827,6 +31312,9 @@
       <c r="AV162" t="n">
         <v>1.193502639951106</v>
       </c>
+      <c r="AW162" t="n">
+        <v>105.00714974947</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -31013,6 +31501,9 @@
       <c r="AV163" t="n">
         <v>2.068689667099605</v>
       </c>
+      <c r="AW163" t="n">
+        <v>40.936561690762</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -31201,6 +31692,9 @@
       <c r="AV164" t="n">
         <v>0.860031082016107</v>
       </c>
+      <c r="AW164" t="n">
+        <v>98.024778336434</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -31387,6 +31881,9 @@
       <c r="AV165" t="n">
         <v>2.004141093604872</v>
       </c>
+      <c r="AW165" t="n">
+        <v>131.5057445501</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -31573,6 +32070,9 @@
       <c r="AV166" t="n">
         <v>1.474467656530919</v>
       </c>
+      <c r="AW166" t="n">
+        <v>102.0217953039</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -31761,6 +32261,9 @@
       <c r="AV167" t="n">
         <v>2.896042080816301</v>
       </c>
+      <c r="AW167" t="n">
+        <v>101.14423857972</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -31947,6 +32450,9 @@
       <c r="AV168" t="n">
         <v>1.603699946483616</v>
       </c>
+      <c r="AW168" t="n">
+        <v>133.68902882039</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -32135,6 +32641,9 @@
       <c r="AV169" t="n">
         <v>2.716024519315923</v>
       </c>
+      <c r="AW169" t="n">
+        <v>63.952376234949</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -32321,6 +32830,9 @@
       <c r="AV170" t="n">
         <v>3.303370161133216</v>
       </c>
+      <c r="AW170" t="n">
+        <v>66.512105153767</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -32507,6 +33019,9 @@
       <c r="AV171" t="n">
         <v>1.603699946483616</v>
       </c>
+      <c r="AW171" t="n">
+        <v>133.68902882039</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -32693,6 +33208,9 @@
       <c r="AV172" t="n">
         <v>2.716024519315923</v>
       </c>
+      <c r="AW172" t="n">
+        <v>63.952376234949</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -32881,6 +33399,9 @@
       <c r="AV173" t="n">
         <v>2.083614850620762</v>
       </c>
+      <c r="AW173" t="n">
+        <v>98.48331172771501</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -33067,6 +33588,9 @@
       <c r="AV174" t="n">
         <v>1.362799557114158</v>
       </c>
+      <c r="AW174" t="n">
+        <v>41.753380143385</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -33253,6 +33777,9 @@
       <c r="AV175" t="n">
         <v>2.896042080816301</v>
       </c>
+      <c r="AW175" t="n">
+        <v>101.14423857972</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -33441,6 +33968,9 @@
       <c r="AV176" t="n">
         <v>2.656504893099722</v>
       </c>
+      <c r="AW176" t="n">
+        <v>86.72315054824</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -33627,6 +34157,9 @@
       <c r="AV177" t="n">
         <v>2.656504893099722</v>
       </c>
+      <c r="AW177" t="n">
+        <v>86.72315054824</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -33815,6 +34348,9 @@
       <c r="AV178" t="n">
         <v>1.825156014947169</v>
       </c>
+      <c r="AW178" t="n">
+        <v>41.105350817723</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -34003,6 +34539,9 @@
       <c r="AV179" t="n">
         <v>2.716024519315923</v>
       </c>
+      <c r="AW179" t="n">
+        <v>63.952376234949</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -34187,6 +34726,9 @@
       <c r="AV180" t="n">
         <v>3.303370161133216</v>
       </c>
+      <c r="AW180" t="n">
+        <v>66.512105153767</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -34373,6 +34915,9 @@
       <c r="AV181" t="n">
         <v>1.192977729885044</v>
       </c>
+      <c r="AW181" t="n">
+        <v>65.2783212983</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -34559,6 +35104,9 @@
       <c r="AV182" t="n">
         <v>2.258740396249522</v>
       </c>
+      <c r="AW182" t="n">
+        <v>51.557591839171</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -34745,6 +35293,9 @@
       <c r="AV183" t="n">
         <v>2.395411203642468</v>
       </c>
+      <c r="AW183" t="n">
+        <v>99.718282717797</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -34933,6 +35484,9 @@
       <c r="AV184" t="n">
         <v>1.116443109262249</v>
       </c>
+      <c r="AW184" t="n">
+        <v>60.728535497052</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -35121,6 +35675,9 @@
       <c r="AV185" t="n">
         <v>2.860445794616325</v>
       </c>
+      <c r="AW185" t="n">
+        <v>39.7840016917</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -35307,6 +35864,9 @@
       <c r="AV186" t="n">
         <v>1.405190266092731</v>
       </c>
+      <c r="AW186" t="n">
+        <v>86.34546978493699</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -35493,6 +36053,9 @@
       <c r="AV187" t="n">
         <v>1.192977729885044</v>
       </c>
+      <c r="AW187" t="n">
+        <v>65.2783212983</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -35681,6 +36244,9 @@
       <c r="AV188" t="n">
         <v>1.405190266092731</v>
       </c>
+      <c r="AW188" t="n">
+        <v>86.34546978493699</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -35869,6 +36435,9 @@
       <c r="AV189" t="n">
         <v>1.405190266092731</v>
       </c>
+      <c r="AW189" t="n">
+        <v>86.34546978493699</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -36057,6 +36626,9 @@
       <c r="AV190" t="n">
         <v>2.860445794616325</v>
       </c>
+      <c r="AW190" t="n">
+        <v>39.7840016917</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -36245,6 +36817,9 @@
       <c r="AV191" t="n">
         <v>2.860445794616325</v>
       </c>
+      <c r="AW191" t="n">
+        <v>39.7840016917</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -36431,6 +37006,9 @@
       <c r="AV192" t="n">
         <v>2.395411203642468</v>
       </c>
+      <c r="AW192" t="n">
+        <v>99.718282717797</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -36619,6 +37197,9 @@
       <c r="AV193" t="n">
         <v>1.405190266092731</v>
       </c>
+      <c r="AW193" t="n">
+        <v>86.34546978493699</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -36807,6 +37388,9 @@
       <c r="AV194" t="n">
         <v>1.64590872932709</v>
       </c>
+      <c r="AW194" t="n">
+        <v>98.159104237877</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -36995,6 +37579,9 @@
       <c r="AV195" t="n">
         <v>1.64590872932709</v>
       </c>
+      <c r="AW195" t="n">
+        <v>98.159104237877</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -37183,6 +37770,9 @@
       <c r="AV196" t="n">
         <v>1.405190266092731</v>
       </c>
+      <c r="AW196" t="n">
+        <v>86.34546978493699</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -37369,6 +37959,9 @@
       <c r="AV197" t="n">
         <v>0.4291625343719119</v>
       </c>
+      <c r="AW197" t="n">
+        <v>133.82273913912</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -37557,6 +38150,9 @@
       <c r="AV198" t="n">
         <v>1.349738438261227</v>
       </c>
+      <c r="AW198" t="n">
+        <v>65.241487437771</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -37743,6 +38339,9 @@
       <c r="AV199" t="n">
         <v>0.9878933491675781</v>
       </c>
+      <c r="AW199" t="n">
+        <v>58.556132032771</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -37929,6 +38528,9 @@
       <c r="AV200" t="n">
         <v>2.027446476396349</v>
       </c>
+      <c r="AW200" t="n">
+        <v>97.88586068053699</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -38117,6 +38719,9 @@
       <c r="AV201" t="n">
         <v>2.549647852530484</v>
       </c>
+      <c r="AW201" t="n">
+        <v>35.695844772654</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -38305,6 +38910,9 @@
       <c r="AV202" t="n">
         <v>1.624475159475324</v>
       </c>
+      <c r="AW202" t="n">
+        <v>85.65750534598099</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -38493,6 +39101,9 @@
       <c r="AV203" t="n">
         <v>0.9878933491675781</v>
       </c>
+      <c r="AW203" t="n">
+        <v>58.556132032771</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -38681,6 +39292,9 @@
       <c r="AV204" t="n">
         <v>1.349738438261227</v>
       </c>
+      <c r="AW204" t="n">
+        <v>65.241487437771</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -38869,6 +39483,9 @@
       <c r="AV205" t="n">
         <v>1.624475159475324</v>
       </c>
+      <c r="AW205" t="n">
+        <v>85.65750534598099</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -39055,6 +39672,9 @@
       <c r="AV206" t="n">
         <v>2.027446476396349</v>
       </c>
+      <c r="AW206" t="n">
+        <v>97.88586068053699</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -39241,6 +39861,9 @@
       <c r="AV207" t="n">
         <v>0.9878933491675781</v>
       </c>
+      <c r="AW207" t="n">
+        <v>58.556132032771</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -39427,6 +40050,9 @@
       <c r="AV208" t="n">
         <v>1.624475159475324</v>
       </c>
+      <c r="AW208" t="n">
+        <v>85.65750534598099</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -39613,6 +40239,9 @@
       <c r="AV209" t="n">
         <v>0.9878933491675781</v>
       </c>
+      <c r="AW209" t="n">
+        <v>58.556132032771</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -39799,6 +40428,9 @@
       <c r="AV210" t="n">
         <v>5.040550288017997</v>
       </c>
+      <c r="AW210" t="n">
+        <v>55.924328040146</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -39987,6 +40619,9 @@
       <c r="AV211" t="n">
         <v>0.9878933491675781</v>
       </c>
+      <c r="AW211" t="n">
+        <v>58.556132032771</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -40175,6 +40810,9 @@
       <c r="AV212" t="n">
         <v>1.961178531513497</v>
       </c>
+      <c r="AW212" t="n">
+        <v>97.57881607389299</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -40363,6 +41001,9 @@
       <c r="AV213" t="n">
         <v>2.549647852530484</v>
       </c>
+      <c r="AW213" t="n">
+        <v>35.695844772654</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -40551,6 +41192,9 @@
       <c r="AV214" t="n">
         <v>1.624475159475324</v>
       </c>
+      <c r="AW214" t="n">
+        <v>85.65750534598099</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -40739,6 +41383,9 @@
       <c r="AV215" t="n">
         <v>2.549647852530484</v>
       </c>
+      <c r="AW215" t="n">
+        <v>35.695844772654</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -40927,6 +41574,9 @@
       <c r="AV216" t="n">
         <v>2.549647852530484</v>
       </c>
+      <c r="AW216" t="n">
+        <v>35.695844772654</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -41115,6 +41765,9 @@
       <c r="AV217" t="n">
         <v>2.300091594761966</v>
       </c>
+      <c r="AW217" t="n">
+        <v>47.582634643219</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -41303,6 +41956,9 @@
       <c r="AV218" t="n">
         <v>1.624475159475324</v>
       </c>
+      <c r="AW218" t="n">
+        <v>85.65750534598099</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -41491,6 +42147,9 @@
       <c r="AV219" t="n">
         <v>0.9878933491675781</v>
       </c>
+      <c r="AW219" t="n">
+        <v>58.556132032771</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -41695,6 +42354,9 @@
       <c r="AV220" t="n">
         <v>-4.095137490646891</v>
       </c>
+      <c r="AW220" t="n">
+        <v>67.858169885379</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -41883,6 +42545,9 @@
       <c r="AV221" t="n">
         <v>-10.2969188737567</v>
       </c>
+      <c r="AW221" t="n">
+        <v>105.80010911054</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -42070,6 +42735,9 @@
       <c r="AV222" t="n">
         <v>-2.491036209772389</v>
       </c>
+      <c r="AW222" t="n">
+        <v>75.26035315259401</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -42256,6 +42924,9 @@
       <c r="AV223" t="n">
         <v>-4.095137490646891</v>
       </c>
+      <c r="AW223" t="n">
+        <v>67.858169885379</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -42442,6 +43113,9 @@
       <c r="AV224" t="n">
         <v>-7.44064593044142</v>
       </c>
+      <c r="AW224" t="n">
+        <v>114.8530178201</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -42630,6 +43304,9 @@
       <c r="AV225" t="n">
         <v>-7.44064593044142</v>
       </c>
+      <c r="AW225" t="n">
+        <v>114.8530178201</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -42834,6 +43511,9 @@
       <c r="AV226" t="n">
         <v>-2.141737206500537</v>
       </c>
+      <c r="AW226" t="n">
+        <v>43.198776482207</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -43020,6 +43700,9 @@
       <c r="AV227" t="n">
         <v>-4.095137490646891</v>
       </c>
+      <c r="AW227" t="n">
+        <v>67.858169885379</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -43208,6 +43891,9 @@
       <c r="AV228" t="n">
         <v>-2.005337503537632</v>
       </c>
+      <c r="AW228" t="n">
+        <v>40.311887445036</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -43395,6 +44081,9 @@
       <c r="AV229" t="n">
         <v>-4.095137490646891</v>
       </c>
+      <c r="AW229" t="n">
+        <v>67.858169885379</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -43583,6 +44272,9 @@
       <c r="AV230" t="n">
         <v>-7.44064593044142</v>
       </c>
+      <c r="AW230" t="n">
+        <v>114.8530178201</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -43769,6 +44461,9 @@
       <c r="AV231" t="n">
         <v>-4.095137490646891</v>
       </c>
+      <c r="AW231" t="n">
+        <v>67.858169885379</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -43973,6 +44668,9 @@
       <c r="AV232" t="n">
         <v>-4.095137490646891</v>
       </c>
+      <c r="AW232" t="n">
+        <v>67.858169885379</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -44161,6 +44859,9 @@
       <c r="AV233" t="n">
         <v>-10.2969188737567</v>
       </c>
+      <c r="AW233" t="n">
+        <v>105.80010911054</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -44349,6 +45050,9 @@
       <c r="AV234" t="n">
         <v>7.157898830572094</v>
       </c>
+      <c r="AW234" t="n">
+        <v>57.007189840034</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -44537,6 +45241,9 @@
       <c r="AV235" t="n">
         <v>-2.141737206500537</v>
       </c>
+      <c r="AW235" t="n">
+        <v>43.198776482207</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -44723,6 +45430,9 @@
       <c r="AV236" t="n">
         <v>-10.94007065918665</v>
       </c>
+      <c r="AW236" t="n">
+        <v>119.17898068922</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -44909,6 +45619,9 @@
       <c r="AV237" t="n">
         <v>-4.095137490646891</v>
       </c>
+      <c r="AW237" t="n">
+        <v>67.858169885379</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -45097,6 +45810,9 @@
       <c r="AV238" t="n">
         <v>-6.318255286702083</v>
       </c>
+      <c r="AW238" t="n">
+        <v>82.94787504798001</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -45283,6 +45999,9 @@
       <c r="AV239" t="n">
         <v>-4.095137490646891</v>
       </c>
+      <c r="AW239" t="n">
+        <v>67.858169885379</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -45469,6 +46188,9 @@
       <c r="AV240" t="n">
         <v>-4.095137490646891</v>
       </c>
+      <c r="AW240" t="n">
+        <v>67.858169885379</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -45655,6 +46377,9 @@
       <c r="AV241" t="n">
         <v>-10.94007065918665</v>
       </c>
+      <c r="AW241" t="n">
+        <v>119.17898068922</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -45841,6 +46566,9 @@
       <c r="AV242" t="n">
         <v>-4.095137490646891</v>
       </c>
+      <c r="AW242" t="n">
+        <v>67.858169885379</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -46029,6 +46757,9 @@
       <c r="AV243" t="n">
         <v>-10.2969188737567</v>
       </c>
+      <c r="AW243" t="n">
+        <v>105.80010911054</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -46215,6 +46946,9 @@
       <c r="AV244" t="n">
         <v>-4.095137490646891</v>
       </c>
+      <c r="AW244" t="n">
+        <v>67.858169885379</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -46403,6 +47137,9 @@
       <c r="AV245" t="n">
         <v>-10.2969188737567</v>
       </c>
+      <c r="AW245" t="n">
+        <v>105.80010911054</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -46591,6 +47328,9 @@
       <c r="AV246" t="n">
         <v>-8.868221210463872</v>
       </c>
+      <c r="AW246" t="n">
+        <v>154.28804453106</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -46779,6 +47519,9 @@
       <c r="AV247" t="n">
         <v>-2.005337503537632</v>
       </c>
+      <c r="AW247" t="n">
+        <v>40.311887445036</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -46967,6 +47710,9 @@
       <c r="AV248" t="n">
         <v>-6.318255286702083</v>
       </c>
+      <c r="AW248" t="n">
+        <v>82.94787504798001</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -47155,6 +47901,9 @@
       <c r="AV249" t="n">
         <v>-10.2969188737567</v>
       </c>
+      <c r="AW249" t="n">
+        <v>105.80010911054</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -47343,6 +48092,9 @@
       <c r="AV250" t="n">
         <v>-7.44064593044142</v>
       </c>
+      <c r="AW250" t="n">
+        <v>114.8530178201</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -47531,6 +48283,9 @@
       <c r="AV251" t="n">
         <v>-4.095137490646891</v>
       </c>
+      <c r="AW251" t="n">
+        <v>67.858169885379</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -47719,6 +48474,9 @@
       <c r="AV252" t="n">
         <v>-6.318255286702083</v>
       </c>
+      <c r="AW252" t="n">
+        <v>82.94787504798001</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -47905,6 +48663,9 @@
       <c r="AV253" t="n">
         <v>-4.095137490646891</v>
       </c>
+      <c r="AW253" t="n">
+        <v>67.858169885379</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -48093,6 +48854,9 @@
       <c r="AV254" t="n">
         <v>-10.2969188737567</v>
       </c>
+      <c r="AW254" t="n">
+        <v>105.80010911054</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -48279,6 +49043,9 @@
       <c r="AV255" t="n">
         <v>-4.095137490646891</v>
       </c>
+      <c r="AW255" t="n">
+        <v>67.858169885379</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -48465,6 +49232,9 @@
       <c r="AV256" t="n">
         <v>-10.2969188737567</v>
       </c>
+      <c r="AW256" t="n">
+        <v>105.80010911054</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -48651,6 +49421,9 @@
       <c r="AV257" t="n">
         <v>-10.2969188737567</v>
       </c>
+      <c r="AW257" t="n">
+        <v>105.80010911054</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -48837,6 +49610,9 @@
       <c r="AV258" t="n">
         <v>-10.2969188737567</v>
       </c>
+      <c r="AW258" t="n">
+        <v>105.80010911054</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -49023,6 +49799,9 @@
       <c r="AV259" t="n">
         <v>8.931062066007797</v>
       </c>
+      <c r="AW259" t="n">
+        <v>145.73468991087</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -49211,6 +49990,9 @@
       <c r="AV260" t="n">
         <v>3.908686776894172</v>
       </c>
+      <c r="AW260" t="n">
+        <v>41.64119215621</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -49397,6 +50179,9 @@
       <c r="AV261" t="n">
         <v>6.882337865903551</v>
       </c>
+      <c r="AW261" t="n">
+        <v>113.08790347101</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -49585,6 +50370,9 @@
       <c r="AV262" t="n">
         <v>6.683144185002803</v>
       </c>
+      <c r="AW262" t="n">
+        <v>115.59391415764</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -49773,6 +50561,9 @@
       <c r="AV263" t="n">
         <v>3.669999861567348</v>
       </c>
+      <c r="AW263" t="n">
+        <v>67.878829091028</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -49961,6 +50752,9 @@
       <c r="AV264" t="n">
         <v>5.937508573074396</v>
       </c>
+      <c r="AW264" t="n">
+        <v>36.833662831508</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -50147,6 +50941,9 @@
       <c r="AV265" t="n">
         <v>6.683144185002803</v>
       </c>
+      <c r="AW265" t="n">
+        <v>115.59391415764</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -50335,6 +51132,9 @@
       <c r="AV266" t="n">
         <v>8.575950904856498</v>
       </c>
+      <c r="AW266" t="n">
+        <v>105.19601117124</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -50523,6 +51323,9 @@
       <c r="AV267" t="n">
         <v>4.795329105514583</v>
       </c>
+      <c r="AW267" t="n">
+        <v>82.490091091384</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -50711,6 +51514,9 @@
       <c r="AV268" t="n">
         <v>5.937508573074396</v>
       </c>
+      <c r="AW268" t="n">
+        <v>36.833662831508</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -50899,6 +51705,9 @@
       <c r="AV269" t="n">
         <v>8.575950904856498</v>
       </c>
+      <c r="AW269" t="n">
+        <v>105.19601117124</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -51087,6 +51896,9 @@
       <c r="AV270" t="n">
         <v>5.937508573074396</v>
       </c>
+      <c r="AW270" t="n">
+        <v>36.833662831508</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -51291,6 +52103,9 @@
       <c r="AV271" t="n">
         <v>6.202554015860812</v>
       </c>
+      <c r="AW271" t="n">
+        <v>107.9352519968</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -51477,6 +52292,9 @@
       <c r="AV272" t="n">
         <v>3.669999861567348</v>
       </c>
+      <c r="AW272" t="n">
+        <v>67.878829091028</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -51665,6 +52483,9 @@
       <c r="AV273" t="n">
         <v>6.276830732305257</v>
       </c>
+      <c r="AW273" t="n">
+        <v>50.43564578543</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -51853,6 +52674,9 @@
       <c r="AV274" t="n">
         <v>6.683144185002803</v>
       </c>
+      <c r="AW274" t="n">
+        <v>115.59391415764</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -52042,6 +52866,9 @@
       <c r="AV275" t="n">
         <v>6.276830732305257</v>
       </c>
+      <c r="AW275" t="n">
+        <v>50.43564578543</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -52228,6 +53055,9 @@
       <c r="AV276" t="n">
         <v>5.391888041414731</v>
       </c>
+      <c r="AW276" t="n">
+        <v>40.980865664706</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -52416,6 +53246,9 @@
       <c r="AV277" t="n">
         <v>8.931062066007797</v>
       </c>
+      <c r="AW277" t="n">
+        <v>145.73468991087</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -52603,6 +53436,9 @@
       <c r="AV278" t="n">
         <v>8.575950904856498</v>
       </c>
+      <c r="AW278" t="n">
+        <v>105.19601117124</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -52791,6 +53627,9 @@
       <c r="AV279" t="n">
         <v>5.937508573074396</v>
       </c>
+      <c r="AW279" t="n">
+        <v>36.833662831508</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -52980,6 +53819,9 @@
       <c r="AV280" t="n">
         <v>3.669999861567348</v>
       </c>
+      <c r="AW280" t="n">
+        <v>67.878829091028</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -53168,6 +54010,9 @@
       <c r="AV281" t="n">
         <v>6.276830732305257</v>
       </c>
+      <c r="AW281" t="n">
+        <v>50.43564578543</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -53356,6 +54201,9 @@
       <c r="AV282" t="n">
         <v>5.391888041414731</v>
       </c>
+      <c r="AW282" t="n">
+        <v>40.980865664706</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -53542,6 +54390,9 @@
       <c r="AV283" t="n">
         <v>3.669999861567348</v>
       </c>
+      <c r="AW283" t="n">
+        <v>67.878829091028</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -53730,6 +54581,9 @@
       <c r="AV284" t="n">
         <v>8.575950904856498</v>
       </c>
+      <c r="AW284" t="n">
+        <v>105.19601117124</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -53918,6 +54772,9 @@
       <c r="AV285" t="n">
         <v>8.931062066007797</v>
       </c>
+      <c r="AW285" t="n">
+        <v>145.73468991087</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -54104,6 +54961,9 @@
       <c r="AV286" t="n">
         <v>5.391888041414731</v>
       </c>
+      <c r="AW286" t="n">
+        <v>40.980865664706</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -54290,6 +55150,9 @@
       <c r="AV287" t="n">
         <v>6.276830732305257</v>
       </c>
+      <c r="AW287" t="n">
+        <v>50.43564578543</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -54476,6 +55339,9 @@
       <c r="AV288" t="n">
         <v>6.276830732305257</v>
       </c>
+      <c r="AW288" t="n">
+        <v>50.43564578543</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -54680,6 +55546,9 @@
       <c r="AV289" t="n">
         <v>5.391888041414731</v>
       </c>
+      <c r="AW289" t="n">
+        <v>40.980865664706</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -54866,6 +55735,9 @@
       <c r="AV290" t="n">
         <v>8.575950904856498</v>
       </c>
+      <c r="AW290" t="n">
+        <v>105.19601117124</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -55054,6 +55926,9 @@
       <c r="AV291" t="n">
         <v>1.459288507572694</v>
       </c>
+      <c r="AW291" t="n">
+        <v>33.752971546974</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -55242,6 +56117,9 @@
       <c r="AV292" t="n">
         <v>4.839085147144033</v>
       </c>
+      <c r="AW292" t="n">
+        <v>100.43232570399</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -55428,6 +56306,9 @@
       <c r="AV293" t="n">
         <v>4.839085147144033</v>
       </c>
+      <c r="AW293" t="n">
+        <v>100.43232570399</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -55616,6 +56497,9 @@
       <c r="AV294" t="n">
         <v>8.619503551914917</v>
       </c>
+      <c r="AW294" t="n">
+        <v>43.143073237403</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -55804,6 +56688,9 @@
       <c r="AV295" t="n">
         <v>6.179312225729632</v>
       </c>
+      <c r="AW295" t="n">
+        <v>109.40393002769</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -55992,6 +56879,9 @@
       <c r="AV296" t="n">
         <v>3.005635160762978</v>
       </c>
+      <c r="AW296" t="n">
+        <v>36.270510219437</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -56180,6 +57070,9 @@
       <c r="AV297" t="n">
         <v>4.839085147144033</v>
       </c>
+      <c r="AW297" t="n">
+        <v>100.43232570399</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -56369,6 +57262,9 @@
       <c r="AV298" t="n">
         <v>2.570840474439692</v>
       </c>
+      <c r="AW298" t="n">
+        <v>111.95130179017</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -56558,6 +57454,9 @@
       <c r="AV299" t="n">
         <v>1.459288507572694</v>
       </c>
+      <c r="AW299" t="n">
+        <v>33.752971546974</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -56746,6 +57645,9 @@
       <c r="AV300" t="n">
         <v>1.459288507572694</v>
       </c>
+      <c r="AW300" t="n">
+        <v>33.752971546974</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -56933,6 +57835,9 @@
       <c r="AV301" t="n">
         <v>2.570840474439692</v>
       </c>
+      <c r="AW301" t="n">
+        <v>111.95130179017</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -57121,6 +58026,9 @@
       <c r="AV302" t="n">
         <v>4.839085147144033</v>
       </c>
+      <c r="AW302" t="n">
+        <v>100.43232570399</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -57309,6 +58217,9 @@
       <c r="AV303" t="n">
         <v>8.619503551914917</v>
       </c>
+      <c r="AW303" t="n">
+        <v>43.143073237403</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -57495,6 +58406,9 @@
       <c r="AV304" t="n">
         <v>2.568328178340693</v>
       </c>
+      <c r="AW304" t="n">
+        <v>37.194739974863</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -57681,6 +58595,9 @@
       <c r="AV305" t="n">
         <v>2.568328178340693</v>
       </c>
+      <c r="AW305" t="n">
+        <v>37.194739974863</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -57869,6 +58786,9 @@
       <c r="AV306" t="n">
         <v>4.233431833691697</v>
       </c>
+      <c r="AW306" t="n">
+        <v>104.28155910894</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -58055,6 +58975,9 @@
       <c r="AV307" t="n">
         <v>5.007234590450366</v>
       </c>
+      <c r="AW307" t="n">
+        <v>48.353625405003</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -58243,6 +59166,9 @@
       <c r="AV308" t="n">
         <v>1.459288507572694</v>
       </c>
+      <c r="AW308" t="n">
+        <v>33.752971546974</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -58429,6 +59355,9 @@
       <c r="AV309" t="n">
         <v>1.459288507572694</v>
       </c>
+      <c r="AW309" t="n">
+        <v>33.752971546974</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -58617,6 +59546,9 @@
       <c r="AV310" t="n">
         <v>1.369731055365847</v>
       </c>
+      <c r="AW310" t="n">
+        <v>64.78935720879601</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -58805,6 +59737,9 @@
       <c r="AV311" t="n">
         <v>1.540173107095669</v>
       </c>
+      <c r="AW311" t="n">
+        <v>29.69814656209</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -58993,6 +59928,9 @@
       <c r="AV312" t="n">
         <v>4.839085147144033</v>
       </c>
+      <c r="AW312" t="n">
+        <v>100.43232570399</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -59179,6 +60117,9 @@
       <c r="AV313" t="n">
         <v>4.839085147144033</v>
       </c>
+      <c r="AW313" t="n">
+        <v>100.43232570399</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -59368,6 +60309,9 @@
       <c r="AV314" t="n">
         <v>1.369731055365847</v>
       </c>
+      <c r="AW314" t="n">
+        <v>64.78935720879601</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -59556,6 +60500,9 @@
       <c r="AV315" t="n">
         <v>2.570840474439692</v>
       </c>
+      <c r="AW315" t="n">
+        <v>111.95130179017</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -59742,6 +60689,9 @@
       <c r="AV316" t="n">
         <v>5.007234590450366</v>
       </c>
+      <c r="AW316" t="n">
+        <v>48.353625405003</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -59930,6 +60880,9 @@
       <c r="AV317" t="n">
         <v>8.619503551914917</v>
       </c>
+      <c r="AW317" t="n">
+        <v>43.143073237403</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -60118,6 +61071,9 @@
       <c r="AV318" t="n">
         <v>0.3399661580034632</v>
       </c>
+      <c r="AW318" t="n">
+        <v>101.14707428399</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -60323,6 +61279,9 @@
       <c r="AV319" t="n">
         <v>-0.3106701847258933</v>
       </c>
+      <c r="AW319" t="n">
+        <v>36.37122985845</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -60511,6 +61470,9 @@
       <c r="AV320" t="n">
         <v>0.3399661580034632</v>
       </c>
+      <c r="AW320" t="n">
+        <v>101.14707428399</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -60699,6 +61661,9 @@
       <c r="AV321" t="n">
         <v>0.9364875026714827</v>
       </c>
+      <c r="AW321" t="n">
+        <v>110.6417894474</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -60886,6 +61851,9 @@
       <c r="AV322" t="n">
         <v>0.9364875026714827</v>
       </c>
+      <c r="AW322" t="n">
+        <v>110.6417894474</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -61074,6 +62042,9 @@
       <c r="AV323" t="n">
         <v>0.07456072164949035</v>
       </c>
+      <c r="AW323" t="n">
+        <v>45.023552850836</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -61260,6 +62231,9 @@
       <c r="AV324" t="n">
         <v>0.07456072164949035</v>
       </c>
+      <c r="AW324" t="n">
+        <v>45.023552850836</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -61446,6 +62420,9 @@
       <c r="AV325" t="n">
         <v>0.9364875026714827</v>
       </c>
+      <c r="AW325" t="n">
+        <v>110.6417894474</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -61634,6 +62611,9 @@
       <c r="AV326" t="n">
         <v>1.251700632035949</v>
       </c>
+      <c r="AW326" t="n">
+        <v>105.17086569329</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -61821,6 +62801,9 @@
       </c>
       <c r="AV327" t="n">
         <v>-0.3106701847258933</v>
+      </c>
+      <c r="AW327" t="n">
+        <v>36.37122985845</v>
       </c>
     </row>
   </sheetData>
